--- a/final carbon data/env_site_final.xlsx
+++ b/final carbon data/env_site_final.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t xml:space="preserve">fid</t>
   </si>
@@ -35,42 +35,48 @@
     <t xml:space="preserve">unique_id</t>
   </si>
   <si>
+    <t xml:space="preserve">FHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVIamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVImed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEC_LCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moose_new</t>
+  </si>
+  <si>
     <t xml:space="preserve">LGS</t>
   </si>
   <si>
-    <t xml:space="preserve">FHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVIamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVImed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEC_LCT</t>
-  </si>
-  <si>
     <t xml:space="preserve">dominant</t>
   </si>
   <si>
     <t xml:space="preserve">12_2023</t>
   </si>
   <si>
+    <t xml:space="preserve">2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">TN</t>
   </si>
   <si>
@@ -92,6 +98,9 @@
     <t xml:space="preserve">19_2022</t>
   </si>
   <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">TN_19_2022</t>
   </si>
   <si>
@@ -257,271 +266,271 @@
     <t xml:space="preserve">TN_01_2023</t>
   </si>
   <si>
+    <t xml:space="preserve">06_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_06_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_36_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_36_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_39_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_06_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_15_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_35_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_15_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_11_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_19_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_35_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_11_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_31_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_03_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_03_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_04_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_09_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_18_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_12_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_18_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_05_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_26_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_37_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_29_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_05_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_21_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_14_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_14_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_24_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_41_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_42_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_27_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_16_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_13_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_16_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_07_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_40_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_07_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_25_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_08_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_22_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_13_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_10_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_10_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_20_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_17_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_38_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_34_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_02_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM_01_2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">01_2022</t>
   </si>
   <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
     <t xml:space="preserve">GM_01_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_01_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_02_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_03_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_03_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_04_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_05_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_05_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_06_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_06_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_07_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_07_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_08_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_09_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_10_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_10_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_11_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_11_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_12_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_13_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_13_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_14_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_14_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_15_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_15_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_16_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_16_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_17_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_18_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_18_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_19_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_20_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_21_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_22_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_24_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_25_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_26_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_27_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_29_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_31_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_34_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_35_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_35_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_36_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_36_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_37_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_38_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_39_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_40_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_41_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM_42_2023</t>
   </si>
   <si>
     <t xml:space="preserve">TN_05_2023</t>
@@ -929,6 +938,9 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -941,48 +953,51 @@
         <v>5368547.86620209</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2023</v>
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>980</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3115</v>
+      </c>
+      <c r="K2" t="n">
+        <v>281.30994</v>
+      </c>
+      <c r="L2" t="n">
+        <v>88</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4.10493</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>39</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
         <v>148</v>
       </c>
-      <c r="I2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J2" t="n">
-        <v>980</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3115</v>
-      </c>
-      <c r="L2" t="n">
-        <v>281.30994</v>
-      </c>
-      <c r="M2" t="n">
-        <v>88</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.10493</v>
-      </c>
-      <c r="O2" t="n">
-        <v>6</v>
-      </c>
-      <c r="P2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -997,48 +1012,51 @@
         <v>5381706.90088624</v>
       </c>
       <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1890</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4113</v>
+      </c>
+      <c r="K3" t="n">
+        <v>87.87891</v>
+      </c>
+      <c r="L3" t="n">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>22.03042</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>47</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
         <v>91</v>
       </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1890</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4113</v>
-      </c>
-      <c r="L3" t="n">
-        <v>87.87891</v>
-      </c>
-      <c r="M3" t="n">
-        <v>61</v>
-      </c>
-      <c r="N3" t="n">
-        <v>22.03042</v>
-      </c>
-      <c r="O3" t="n">
-        <v>6</v>
-      </c>
-      <c r="P3" t="n">
-        <v>47</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1053,48 +1071,51 @@
         <v>5392377.40797641</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2023</v>
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3136</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5162</v>
+      </c>
+      <c r="K4" t="n">
+        <v>170.83765</v>
+      </c>
+      <c r="L4" t="n">
         <v>88</v>
       </c>
-      <c r="I4" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3136</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5162</v>
-      </c>
-      <c r="L4" t="n">
-        <v>170.83765</v>
-      </c>
       <c r="M4" t="n">
+        <v>17.23019</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>21</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
         <v>88</v>
       </c>
-      <c r="N4" t="n">
-        <v>17.23019</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>8</v>
-      </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1109,48 +1130,51 @@
         <v>5377455.04856275</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2022</v>
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3490</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3271</v>
+      </c>
+      <c r="K5" t="n">
+        <v>337.61987</v>
+      </c>
+      <c r="L5" t="n">
+        <v>181</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10.8079</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>56</v>
+      </c>
+      <c r="P5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
         <v>98</v>
       </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3490</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3271</v>
-      </c>
-      <c r="L5" t="n">
-        <v>337.61987</v>
-      </c>
-      <c r="M5" t="n">
-        <v>181</v>
-      </c>
-      <c r="N5" t="n">
-        <v>10.8079</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>56</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>8</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1165,48 +1189,51 @@
         <v>5367730.68834607</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2022</v>
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3190</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4759</v>
+      </c>
+      <c r="K6" t="n">
+        <v>236.7683</v>
+      </c>
+      <c r="L6" t="n">
+        <v>15</v>
+      </c>
+      <c r="M6" t="n">
+        <v>25.73164</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>64</v>
+      </c>
+      <c r="P6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
         <v>104</v>
       </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3190</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4759</v>
-      </c>
-      <c r="L6" t="n">
-        <v>236.7683</v>
-      </c>
-      <c r="M6" t="n">
-        <v>15</v>
-      </c>
-      <c r="N6" t="n">
-        <v>25.73164</v>
-      </c>
-      <c r="O6" t="n">
-        <v>5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>64</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>8</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1221,46 +1248,51 @@
         <v>5365304.41957784</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2023</v>
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
       </c>
       <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="n">
+        <v>12</v>
+      </c>
+      <c r="I7" t="n">
+        <v>676</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>165.96376</v>
+      </c>
+      <c r="L7" t="n">
         <v>19</v>
       </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7"/>
-      <c r="I7" t="n">
-        <v>12</v>
-      </c>
-      <c r="J7" t="n">
-        <v>676</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="L7" t="n">
-        <v>165.96376</v>
-      </c>
       <c r="M7" t="n">
-        <v>19</v>
+        <v>9.23158</v>
       </c>
       <c r="N7" t="n">
-        <v>9.23158</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="P7" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
+        <v>147.9597</v>
+      </c>
+      <c r="S7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1275,48 +1307,51 @@
         <v>5370625.2522931</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2022</v>
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
+        <v>9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>592</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3129</v>
+      </c>
+      <c r="K8" t="n">
+        <v>208.61046</v>
+      </c>
+      <c r="L8" t="n">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>15.38019</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>69</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
         <v>139</v>
       </c>
-      <c r="I8" t="n">
-        <v>9</v>
-      </c>
-      <c r="J8" t="n">
-        <v>592</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3129</v>
-      </c>
-      <c r="L8" t="n">
-        <v>208.61046</v>
-      </c>
-      <c r="M8" t="n">
-        <v>93</v>
-      </c>
-      <c r="N8" t="n">
-        <v>15.38019</v>
-      </c>
-      <c r="O8" t="n">
-        <v>5</v>
-      </c>
-      <c r="P8" t="n">
-        <v>69</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1331,48 +1366,51 @@
         <v>5373939.22548868</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2023</v>
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2140</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2896</v>
+      </c>
+      <c r="K9" t="n">
+        <v>96.34019</v>
+      </c>
+      <c r="L9" t="n">
+        <v>110</v>
+      </c>
+      <c r="M9" t="n">
+        <v>22.05243</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>56</v>
+      </c>
+      <c r="P9" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
         <v>92</v>
       </c>
-      <c r="I9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2140</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2896</v>
-      </c>
-      <c r="L9" t="n">
-        <v>96.34019</v>
-      </c>
-      <c r="M9" t="n">
-        <v>110</v>
-      </c>
-      <c r="N9" t="n">
-        <v>22.05243</v>
-      </c>
-      <c r="O9" t="n">
-        <v>6</v>
-      </c>
-      <c r="P9" t="n">
-        <v>56</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>8</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1387,48 +1425,51 @@
         <v>5386722.24818788</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2023</v>
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H10" t="n">
+        <v>9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>829</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4641</v>
+      </c>
+      <c r="K10" t="n">
+        <v>237.20047</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>39.93323</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>65</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
         <v>190</v>
       </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>829</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4641</v>
-      </c>
-      <c r="L10" t="n">
-        <v>237.20047</v>
-      </c>
-      <c r="M10" t="n">
-        <v>8</v>
-      </c>
-      <c r="N10" t="n">
-        <v>39.93323</v>
-      </c>
-      <c r="O10" t="n">
-        <v>6</v>
-      </c>
-      <c r="P10" t="n">
-        <v>65</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1443,46 +1484,51 @@
         <v>5384293.71905321</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2023</v>
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11"/>
+        <v>41</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>463</v>
       </c>
       <c r="J11" t="n">
-        <v>463</v>
+        <v>3825</v>
       </c>
       <c r="K11" t="n">
-        <v>3825</v>
+        <v>119.74488</v>
       </c>
       <c r="L11" t="n">
-        <v>119.74488</v>
+        <v>23</v>
       </c>
       <c r="M11" t="n">
-        <v>23</v>
+        <v>24.42721</v>
       </c>
       <c r="N11" t="n">
-        <v>24.42721</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="P11" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" t="n">
+        <v>126.29289</v>
+      </c>
+      <c r="S11" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1497,48 +1543,51 @@
         <v>5370987.14516531</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2022</v>
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1595</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3599</v>
+      </c>
+      <c r="K12" t="n">
+        <v>135</v>
+      </c>
+      <c r="L12" t="n">
+        <v>94</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.97689</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>26</v>
+      </c>
+      <c r="P12" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
         <v>179</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1595</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3599</v>
-      </c>
-      <c r="L12" t="n">
-        <v>135</v>
-      </c>
-      <c r="M12" t="n">
-        <v>94</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.97689</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>14</v>
-      </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1553,48 +1602,51 @@
         <v>5387465.34846833</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2022</v>
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2818</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4509</v>
+      </c>
+      <c r="K13" t="n">
+        <v>198.43495</v>
+      </c>
+      <c r="L13" t="n">
+        <v>108</v>
+      </c>
+      <c r="M13" t="n">
+        <v>16.32625</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>23</v>
+      </c>
+      <c r="P13" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
         <v>81</v>
       </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2818</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4509</v>
-      </c>
-      <c r="L13" t="n">
-        <v>198.43495</v>
-      </c>
-      <c r="M13" t="n">
-        <v>108</v>
-      </c>
-      <c r="N13" t="n">
-        <v>16.32625</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>8</v>
-      </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1609,48 +1661,51 @@
         <v>5392129.29264945</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2023</v>
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H14" t="n">
+        <v>11</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2453</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2775</v>
+      </c>
+      <c r="K14" t="n">
+        <v>322.59464</v>
+      </c>
+      <c r="L14" t="n">
+        <v>55</v>
+      </c>
+      <c r="M14" t="n">
+        <v>14.03962</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>65</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
         <v>97</v>
       </c>
-      <c r="I14" t="n">
-        <v>11</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2453</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2775</v>
-      </c>
-      <c r="L14" t="n">
-        <v>322.59464</v>
-      </c>
-      <c r="M14" t="n">
-        <v>55</v>
-      </c>
-      <c r="N14" t="n">
-        <v>14.03962</v>
-      </c>
-      <c r="O14" t="n">
-        <v>6</v>
-      </c>
-      <c r="P14" t="n">
-        <v>65</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1665,48 +1720,51 @@
         <v>5387188.52031887</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2022</v>
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H15" t="n">
+        <v>11</v>
+      </c>
+      <c r="I15" t="n">
+        <v>804</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3397</v>
+      </c>
+      <c r="K15" t="n">
+        <v>146.30994</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6</v>
+      </c>
+      <c r="M15" t="n">
+        <v>23.00002</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>60</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
         <v>105</v>
       </c>
-      <c r="I15" t="n">
-        <v>11</v>
-      </c>
-      <c r="J15" t="n">
-        <v>804</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3397</v>
-      </c>
-      <c r="L15" t="n">
-        <v>146.30994</v>
-      </c>
-      <c r="M15" t="n">
-        <v>6</v>
-      </c>
-      <c r="N15" t="n">
-        <v>23.00002</v>
-      </c>
-      <c r="O15" t="n">
-        <v>6</v>
-      </c>
-      <c r="P15" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1721,48 +1779,51 @@
         <v>5367452.18260005</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2023</v>
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H16" t="n">
+        <v>9</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3704</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4525</v>
+      </c>
+      <c r="K16" t="n">
+        <v>161.56505</v>
+      </c>
+      <c r="L16" t="n">
+        <v>80</v>
+      </c>
+      <c r="M16" t="n">
+        <v>16.31466</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>38</v>
+      </c>
+      <c r="P16" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
         <v>106</v>
       </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3704</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4525</v>
-      </c>
-      <c r="L16" t="n">
-        <v>161.56505</v>
-      </c>
-      <c r="M16" t="n">
-        <v>80</v>
-      </c>
-      <c r="N16" t="n">
-        <v>16.31466</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>38</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>8</v>
-      </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1777,48 +1838,51 @@
         <v>5366904.29887388</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2022</v>
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3297</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4577</v>
+      </c>
+      <c r="K17" t="n">
+        <v>178.36342</v>
+      </c>
+      <c r="L17" t="n">
+        <v>105</v>
+      </c>
+      <c r="M17" t="n">
+        <v>18.91599</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>27</v>
+      </c>
+      <c r="P17" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
         <v>94</v>
       </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3297</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4577</v>
-      </c>
-      <c r="L17" t="n">
-        <v>178.36342</v>
-      </c>
-      <c r="M17" t="n">
-        <v>105</v>
-      </c>
-      <c r="N17" t="n">
-        <v>18.91599</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>8</v>
-      </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1833,48 +1897,51 @@
         <v>5382895.60478018</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2023</v>
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H18" t="n">
+        <v>6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1916</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2465</v>
+      </c>
+      <c r="K18" t="n">
+        <v>45</v>
+      </c>
+      <c r="L18" t="n">
+        <v>101</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3.91331</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>37</v>
+      </c>
+      <c r="P18" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
         <v>85</v>
       </c>
-      <c r="I18" t="n">
-        <v>6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1916</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2465</v>
-      </c>
-      <c r="L18" t="n">
-        <v>45</v>
-      </c>
-      <c r="M18" t="n">
-        <v>101</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.91331</v>
-      </c>
-      <c r="O18" t="n">
-        <v>6</v>
-      </c>
-      <c r="P18" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>6</v>
-      </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1889,48 +1956,51 @@
         <v>5387375.57737454</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2022</v>
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2568</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4949</v>
+      </c>
+      <c r="K19" t="n">
+        <v>161.56505</v>
+      </c>
+      <c r="L19" t="n">
+        <v>121</v>
+      </c>
+      <c r="M19" t="n">
+        <v>7.256</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>32</v>
+      </c>
+      <c r="P19" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
         <v>86</v>
       </c>
-      <c r="I19" t="n">
-        <v>3</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2568</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4949</v>
-      </c>
-      <c r="L19" t="n">
-        <v>161.56505</v>
-      </c>
-      <c r="M19" t="n">
-        <v>121</v>
-      </c>
-      <c r="N19" t="n">
-        <v>7.256</v>
-      </c>
-      <c r="O19" t="n">
-        <v>5</v>
-      </c>
-      <c r="P19" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>8</v>
-      </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1945,48 +2015,51 @@
         <v>5376679.87063392</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2023</v>
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1061</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4120</v>
+      </c>
+      <c r="K20" t="n">
+        <v>206.56505</v>
+      </c>
+      <c r="L20" t="n">
+        <v>152</v>
+      </c>
+      <c r="M20" t="n">
+        <v>10.82317</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O20" t="n">
         <v>56</v>
       </c>
-      <c r="H20" t="n">
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
         <v>90</v>
       </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1061</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4120</v>
-      </c>
-      <c r="L20" t="n">
-        <v>206.56505</v>
-      </c>
-      <c r="M20" t="n">
-        <v>152</v>
-      </c>
-      <c r="N20" t="n">
-        <v>10.82317</v>
-      </c>
-      <c r="O20" t="n">
-        <v>6</v>
-      </c>
-      <c r="P20" t="n">
-        <v>56</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2001,48 +2074,51 @@
         <v>5378045.34145147</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2023</v>
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H21" t="n">
+        <v>7</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2877</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2776</v>
+      </c>
+      <c r="K21" t="n">
+        <v>344.0546</v>
+      </c>
+      <c r="L21" t="n">
+        <v>150</v>
+      </c>
+      <c r="M21" t="n">
+        <v>8.23267</v>
+      </c>
+      <c r="N21" t="n">
+        <v>6</v>
+      </c>
+      <c r="O21" t="n">
+        <v>47</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
         <v>100</v>
       </c>
-      <c r="I21" t="n">
-        <v>7</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2877</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2776</v>
-      </c>
-      <c r="L21" t="n">
-        <v>344.0546</v>
-      </c>
-      <c r="M21" t="n">
-        <v>150</v>
-      </c>
-      <c r="N21" t="n">
-        <v>8.23267</v>
-      </c>
-      <c r="O21" t="n">
-        <v>6</v>
-      </c>
-      <c r="P21" t="n">
-        <v>47</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2057,48 +2133,51 @@
         <v>5383171.87246174</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2022</v>
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H22" t="n">
+        <v>10</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1041</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3337</v>
+      </c>
+      <c r="K22" t="n">
+        <v>18.43495</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3.62742</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O22" t="n">
+        <v>66</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
         <v>120</v>
       </c>
-      <c r="I22" t="n">
-        <v>10</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1041</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3337</v>
-      </c>
-      <c r="L22" t="n">
-        <v>18.43495</v>
-      </c>
-      <c r="M22" t="n">
-        <v>6</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.62742</v>
-      </c>
-      <c r="O22" t="n">
-        <v>6</v>
-      </c>
-      <c r="P22" t="n">
-        <v>66</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2113,48 +2192,51 @@
         <v>5367139.71417785</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2023</v>
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3799</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4602</v>
+      </c>
+      <c r="K23" t="n">
+        <v>220.03026</v>
+      </c>
+      <c r="L23" t="n">
         <v>62</v>
       </c>
-      <c r="H23" t="n">
+      <c r="M23" t="n">
+        <v>21.77469</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>16</v>
+      </c>
+      <c r="P23" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
         <v>95</v>
       </c>
-      <c r="I23" t="n">
-        <v>3</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3799</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4602</v>
-      </c>
-      <c r="L23" t="n">
-        <v>220.03026</v>
-      </c>
-      <c r="M23" t="n">
-        <v>62</v>
-      </c>
-      <c r="N23" t="n">
-        <v>21.77469</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>8</v>
-      </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2169,48 +2251,51 @@
         <v>5388835.39637503</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2023</v>
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H24" t="n">
+        <v>11</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1818</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K24" t="n">
+        <v>324.86581</v>
+      </c>
+      <c r="L24" t="n">
+        <v>20</v>
+      </c>
+      <c r="M24" t="n">
+        <v>21.29179</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6</v>
+      </c>
+      <c r="O24" t="n">
+        <v>67</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
         <v>79</v>
       </c>
-      <c r="I24" t="n">
-        <v>11</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1818</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2468</v>
-      </c>
-      <c r="L24" t="n">
-        <v>324.86581</v>
-      </c>
-      <c r="M24" t="n">
-        <v>20</v>
-      </c>
-      <c r="N24" t="n">
-        <v>21.29179</v>
-      </c>
-      <c r="O24" t="n">
-        <v>6</v>
-      </c>
-      <c r="P24" t="n">
-        <v>67</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2225,46 +2310,51 @@
         <v>5379544.5111103</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2022</v>
+        <v>68</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25"/>
+        <v>69</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>988</v>
       </c>
       <c r="J25" t="n">
-        <v>988</v>
+        <v>2624</v>
       </c>
       <c r="K25" t="n">
-        <v>2624</v>
+        <v>203.19859</v>
       </c>
       <c r="L25" t="n">
-        <v>203.19859</v>
+        <v>33</v>
       </c>
       <c r="M25" t="n">
-        <v>33</v>
+        <v>4.50219</v>
       </c>
       <c r="N25" t="n">
-        <v>4.50219</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="P25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q25" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="R25" t="n">
+        <v>153.45364</v>
+      </c>
+      <c r="S25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2279,48 +2369,51 @@
         <v>5367455.59651269</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" t="n">
-        <v>2023</v>
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3504</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4490</v>
+      </c>
+      <c r="K26" t="n">
+        <v>108.43495</v>
+      </c>
+      <c r="L26" t="n">
+        <v>126</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4.99998</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>33</v>
+      </c>
+      <c r="P26" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
         <v>90</v>
       </c>
-      <c r="I26" t="n">
-        <v>3</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3504</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4490</v>
-      </c>
-      <c r="L26" t="n">
-        <v>108.43495</v>
-      </c>
-      <c r="M26" t="n">
-        <v>126</v>
-      </c>
-      <c r="N26" t="n">
-        <v>4.99998</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>8</v>
-      </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2335,48 +2428,51 @@
         <v>5380674.36352476</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2023</v>
+        <v>72</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1057</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3883</v>
+      </c>
+      <c r="K27" t="n">
+        <v>296.56506</v>
+      </c>
+      <c r="L27" t="n">
+        <v>26</v>
+      </c>
+      <c r="M27" t="n">
+        <v>6.87178</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>26</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
         <v>106</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1057</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3883</v>
-      </c>
-      <c r="L27" t="n">
-        <v>296.56506</v>
-      </c>
-      <c r="M27" t="n">
-        <v>26</v>
-      </c>
-      <c r="N27" t="n">
-        <v>6.87178</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1</v>
-      </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2391,48 +2487,51 @@
         <v>5375320.9103121</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2023</v>
+        <v>74</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H28" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>676</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3340</v>
+      </c>
+      <c r="K28" t="n">
+        <v>157.9321</v>
+      </c>
+      <c r="L28" t="n">
+        <v>103</v>
+      </c>
+      <c r="M28" t="n">
+        <v>23.41991</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6</v>
+      </c>
+      <c r="O28" t="n">
+        <v>48</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
         <v>134</v>
       </c>
-      <c r="I28" t="n">
-        <v>5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>676</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3340</v>
-      </c>
-      <c r="L28" t="n">
-        <v>157.9321</v>
-      </c>
-      <c r="M28" t="n">
-        <v>103</v>
-      </c>
-      <c r="N28" t="n">
-        <v>23.41991</v>
-      </c>
-      <c r="O28" t="n">
-        <v>6</v>
-      </c>
-      <c r="P28" t="n">
-        <v>48</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2447,46 +2546,51 @@
         <v>5363953.18056332</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2022</v>
+        <v>76</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29"/>
+        <v>77</v>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
       <c r="I29" t="n">
-        <v>10</v>
+        <v>675</v>
       </c>
       <c r="J29" t="n">
-        <v>675</v>
+        <v>2953</v>
       </c>
       <c r="K29" t="n">
-        <v>2953</v>
+        <v>213.69006</v>
       </c>
       <c r="L29" t="n">
-        <v>213.69006</v>
+        <v>29</v>
       </c>
       <c r="M29" t="n">
-        <v>29</v>
+        <v>9.1816</v>
       </c>
       <c r="N29" t="n">
-        <v>9.1816</v>
+        <v>6</v>
       </c>
       <c r="O29" t="n">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="P29" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
+        <v>143.73402</v>
+      </c>
+      <c r="S29" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2501,48 +2605,51 @@
         <v>5383298.31617016</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2022</v>
+        <v>78</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H30" t="n">
+        <v>10</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1929</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4183</v>
+      </c>
+      <c r="K30" t="n">
+        <v>153.43495</v>
+      </c>
+      <c r="L30" t="n">
+        <v>16</v>
+      </c>
+      <c r="M30" t="n">
+        <v>16.24166</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6</v>
+      </c>
+      <c r="O30" t="n">
+        <v>66</v>
+      </c>
+      <c r="P30" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
         <v>152</v>
       </c>
-      <c r="I30" t="n">
-        <v>10</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1929</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4183</v>
-      </c>
-      <c r="L30" t="n">
-        <v>153.43495</v>
-      </c>
-      <c r="M30" t="n">
-        <v>16</v>
-      </c>
-      <c r="N30" t="n">
-        <v>16.24166</v>
-      </c>
-      <c r="O30" t="n">
-        <v>6</v>
-      </c>
-      <c r="P30" t="n">
-        <v>66</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>6</v>
-      </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2557,48 +2664,51 @@
         <v>5386088.71759201</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" t="n">
-        <v>2022</v>
+        <v>80</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H31" t="n">
+        <v>3</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1578</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4481</v>
+      </c>
+      <c r="K31" t="n">
+        <v>356.18591</v>
+      </c>
+      <c r="L31" t="n">
+        <v>84</v>
+      </c>
+      <c r="M31" t="n">
+        <v>8.14039</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>35</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
         <v>81</v>
       </c>
-      <c r="I31" t="n">
-        <v>3</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1578</v>
-      </c>
-      <c r="K31" t="n">
-        <v>4481</v>
-      </c>
-      <c r="L31" t="n">
-        <v>356.18591</v>
-      </c>
-      <c r="M31" t="n">
-        <v>84</v>
-      </c>
-      <c r="N31" t="n">
-        <v>8.14039</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2613,48 +2723,51 @@
         <v>5368544.91589185</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" t="n">
-        <v>2023</v>
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H32" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>980</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3115</v>
+      </c>
+      <c r="K32" t="n">
+        <v>281.30994</v>
+      </c>
+      <c r="L32" t="n">
+        <v>88</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4.10493</v>
+      </c>
+      <c r="N32" t="n">
+        <v>6</v>
+      </c>
+      <c r="O32" t="n">
+        <v>39</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
         <v>148</v>
       </c>
-      <c r="I32" t="n">
-        <v>5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>980</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3115</v>
-      </c>
-      <c r="L32" t="n">
-        <v>281.30994</v>
-      </c>
-      <c r="M32" t="n">
-        <v>88</v>
-      </c>
-      <c r="N32" t="n">
-        <v>4.10493</v>
-      </c>
-      <c r="O32" t="n">
-        <v>6</v>
-      </c>
-      <c r="P32" t="n">
-        <v>39</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1</v>
-      </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2669,1055 +2782,1114 @@
         <v>5388082.94091081</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" t="n">
-        <v>2023</v>
+        <v>82</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G33" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H33" t="n">
+        <v>4</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1089</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3611</v>
+      </c>
+      <c r="K33" t="n">
+        <v>300.96375</v>
+      </c>
+      <c r="L33" t="n">
+        <v>234</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4.39255</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>35</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
         <v>91</v>
       </c>
-      <c r="I33" t="n">
-        <v>4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1089</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3611</v>
-      </c>
-      <c r="L33" t="n">
-        <v>300.96375</v>
-      </c>
-      <c r="M33" t="n">
-        <v>234</v>
-      </c>
-      <c r="N33" t="n">
-        <v>4.39255</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1</v>
-      </c>
-      <c r="P33" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1</v>
-      </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>449165.509628596</v>
+        <v>454739.783940925</v>
       </c>
       <c r="C34" t="n">
-        <v>5521521.89441345</v>
+        <v>5473772.31120748</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" t="n">
-        <v>2022</v>
+        <v>84</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G34" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H34" t="n">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4202</v>
       </c>
       <c r="J34" t="n">
-        <v>3190</v>
+        <v>5206</v>
       </c>
       <c r="K34" t="n">
-        <v>4545</v>
+        <v>240.94539</v>
       </c>
       <c r="L34" t="n">
-        <v>150.64224</v>
+        <v>122</v>
       </c>
       <c r="M34" t="n">
-        <v>36</v>
+        <v>7.94269</v>
       </c>
       <c r="N34" t="n">
-        <v>22.92799</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="P34" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="Q34" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R34" t="n">
+        <v>86</v>
+      </c>
+      <c r="S34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B35" t="n">
-        <v>438785.929617102</v>
+        <v>431121.025760855</v>
       </c>
       <c r="C35" t="n">
-        <v>5491739.12209843</v>
+        <v>5500784.98332165</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" t="n">
-        <v>2023</v>
+        <v>87</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H35" t="n">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2684</v>
       </c>
       <c r="J35" t="n">
-        <v>3151</v>
+        <v>2155</v>
       </c>
       <c r="K35" t="n">
-        <v>4888</v>
+        <v>333.43494</v>
       </c>
       <c r="L35" t="n">
-        <v>192.99461</v>
+        <v>16</v>
       </c>
       <c r="M35" t="n">
-        <v>117</v>
+        <v>30.01942</v>
       </c>
       <c r="N35" t="n">
-        <v>14.90134</v>
+        <v>4</v>
       </c>
       <c r="O35" t="n">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="P35" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R35" t="n">
+        <v>105</v>
+      </c>
+      <c r="S35" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B36" t="n">
-        <v>433963.255946201</v>
+        <v>433429.969638688</v>
       </c>
       <c r="C36" t="n">
-        <v>5497043.14889659</v>
+        <v>5497876.81398787</v>
       </c>
       <c r="D36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" t="s">
         <v>85</v>
       </c>
-      <c r="E36" t="n">
-        <v>2022</v>
-      </c>
-      <c r="F36" t="s">
-        <v>82</v>
-      </c>
       <c r="G36" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H36" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>3753</v>
       </c>
       <c r="J36" t="n">
-        <v>3619</v>
+        <v>4051</v>
       </c>
       <c r="K36" t="n">
-        <v>4536</v>
+        <v>288.43494</v>
       </c>
       <c r="L36" t="n">
-        <v>198.43495</v>
+        <v>106</v>
       </c>
       <c r="M36" t="n">
-        <v>113</v>
+        <v>2.55846</v>
       </c>
       <c r="N36" t="n">
-        <v>7.28688</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="P36" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="Q36" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R36" t="n">
+        <v>79</v>
+      </c>
+      <c r="S36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B37" t="n">
-        <v>441502.019374694</v>
+        <v>447002.247748543</v>
       </c>
       <c r="C37" t="n">
-        <v>5484819.60393541</v>
+        <v>5481919.86921461</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" t="n">
-        <v>2022</v>
+        <v>91</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H37" t="n">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>4795</v>
       </c>
       <c r="J37" t="n">
-        <v>1298</v>
+        <v>6356</v>
       </c>
       <c r="K37" t="n">
-        <v>4280</v>
+        <v>171.25385</v>
       </c>
       <c r="L37" t="n">
-        <v>172.34935</v>
+        <v>218</v>
       </c>
       <c r="M37" t="n">
-        <v>57</v>
+        <v>72.13596</v>
       </c>
       <c r="N37" t="n">
-        <v>36.94329</v>
+        <v>4</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="P37" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q37" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="S37" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B38" t="n">
-        <v>433972.39759573</v>
+        <v>444593.321311992</v>
       </c>
       <c r="C38" t="n">
-        <v>5498654.73224482</v>
+        <v>5478876.82789764</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" t="n">
-        <v>2023</v>
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H38" t="n">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3429</v>
       </c>
       <c r="J38" t="n">
-        <v>3984</v>
+        <v>3497</v>
       </c>
       <c r="K38" t="n">
-        <v>3827</v>
+        <v>337.61987</v>
       </c>
       <c r="L38" t="n">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="M38" t="n">
-        <v>103</v>
+        <v>10.86614</v>
       </c>
       <c r="N38" t="n">
-        <v>0.99332</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="P38" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="Q38" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R38" t="n">
+        <v>84</v>
+      </c>
+      <c r="S38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B39" t="n">
-        <v>433339.252670643</v>
+        <v>454953.493596268</v>
       </c>
       <c r="C39" t="n">
-        <v>5496745.18838476</v>
+        <v>5474507.53140743</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" t="n">
-        <v>2022</v>
+        <v>94</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H39" t="n">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="I39" t="n">
-        <v>8</v>
+        <v>1757</v>
       </c>
       <c r="J39" t="n">
-        <v>4076</v>
+        <v>2919</v>
       </c>
       <c r="K39" t="n">
-        <v>4089</v>
+        <v>284.74356</v>
       </c>
       <c r="L39" t="n">
-        <v>244.98311</v>
+        <v>186</v>
       </c>
       <c r="M39" t="n">
-        <v>106</v>
+        <v>16.00147</v>
       </c>
       <c r="N39" t="n">
-        <v>13.06099</v>
+        <v>5</v>
       </c>
       <c r="O39" t="n">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="P39" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="Q39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>11</v>
+        <v>75</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B40" t="n">
-        <v>443483.445094147</v>
+        <v>440454.961068764</v>
       </c>
       <c r="C40" t="n">
-        <v>5483779.7209153</v>
+        <v>5486838.86015583</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" t="n">
-        <v>2022</v>
+        <v>96</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H40" t="n">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>2197</v>
       </c>
       <c r="J40" t="n">
-        <v>3249</v>
+        <v>3832</v>
       </c>
       <c r="K40" t="n">
-        <v>3266</v>
+        <v>254.74489</v>
       </c>
       <c r="L40" t="n">
-        <v>212.00539</v>
+        <v>68</v>
       </c>
       <c r="M40" t="n">
-        <v>87</v>
+        <v>37.17364</v>
       </c>
       <c r="N40" t="n">
-        <v>11.99036</v>
+        <v>4</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="P40" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="Q40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>147</v>
+      </c>
+      <c r="S40" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B41" t="n">
-        <v>424040.286099485</v>
+        <v>447554.750798451</v>
       </c>
       <c r="C41" t="n">
-        <v>5484245.27998424</v>
+        <v>5474862.69787843</v>
       </c>
       <c r="D41" t="s">
-        <v>94</v>
-      </c>
-      <c r="E41" t="n">
-        <v>2023</v>
+        <v>98</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G41" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H41" t="n">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="I41" t="n">
+        <v>2529</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4056</v>
+      </c>
+      <c r="K41" t="n">
+        <v>188.74615</v>
+      </c>
+      <c r="L41" t="n">
+        <v>41</v>
+      </c>
+      <c r="M41" t="n">
+        <v>14.4262</v>
+      </c>
+      <c r="N41" t="n">
+        <v>4</v>
+      </c>
+      <c r="O41" t="n">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q41" t="n">
         <v>3</v>
       </c>
-      <c r="J41" t="n">
-        <v>3253</v>
-      </c>
-      <c r="K41" t="n">
-        <v>4166</v>
-      </c>
-      <c r="L41" t="n">
-        <v>247.83365</v>
-      </c>
-      <c r="M41" t="n">
-        <v>150</v>
-      </c>
-      <c r="N41" t="n">
-        <v>23.22338</v>
-      </c>
-      <c r="O41" t="n">
-        <v>4</v>
-      </c>
-      <c r="P41" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>6</v>
-      </c>
       <c r="R41" t="n">
-        <v>11</v>
+        <v>96</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B42" t="n">
-        <v>454739.783940925</v>
+        <v>434447.912745962</v>
       </c>
       <c r="C42" t="n">
-        <v>5473772.31120748</v>
+        <v>5496789.34971667</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" t="n">
-        <v>2022</v>
+        <v>100</v>
+      </c>
+      <c r="E42" t="s">
+        <v>28</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G42" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H42" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>3711</v>
       </c>
       <c r="J42" t="n">
-        <v>4202</v>
+        <v>4336</v>
       </c>
       <c r="K42" t="n">
-        <v>5206</v>
+        <v>75.06858</v>
       </c>
       <c r="L42" t="n">
-        <v>240.94539</v>
+        <v>106</v>
       </c>
       <c r="M42" t="n">
-        <v>122</v>
+        <v>25.37465</v>
       </c>
       <c r="N42" t="n">
-        <v>7.94269</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="P42" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="Q42" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
+        <v>89</v>
+      </c>
+      <c r="S42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
+        <v>12</v>
+      </c>
+      <c r="B43" t="n">
+        <v>445862.556378718</v>
+      </c>
+      <c r="C43" t="n">
+        <v>5475105.13518301</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" t="s">
+        <v>102</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3688</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3832</v>
+      </c>
+      <c r="K43" t="n">
+        <v>53.1301</v>
+      </c>
+      <c r="L43" t="n">
+        <v>93</v>
+      </c>
+      <c r="M43" t="n">
+        <v>7.38947</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" t="n">
+        <v>23</v>
+      </c>
+      <c r="P43" t="n">
         <v>6</v>
       </c>
-      <c r="B43" t="n">
-        <v>444593.321311992</v>
-      </c>
-      <c r="C43" t="n">
-        <v>5478876.82789764</v>
-      </c>
-      <c r="D43" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
-      </c>
-      <c r="G43" t="s">
-        <v>98</v>
-      </c>
-      <c r="H43" t="n">
-        <v>84</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3429</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3497</v>
-      </c>
-      <c r="L43" t="n">
-        <v>337.61987</v>
-      </c>
-      <c r="M43" t="n">
-        <v>77</v>
-      </c>
-      <c r="N43" t="n">
-        <v>10.86614</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1</v>
-      </c>
-      <c r="P43" t="n">
-        <v>34</v>
-      </c>
       <c r="Q43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R43" t="n">
+        <v>71</v>
+      </c>
+      <c r="S43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B44" t="n">
-        <v>432355.901554512</v>
+        <v>432960.259713967</v>
       </c>
       <c r="C44" t="n">
-        <v>5504544.98235227</v>
+        <v>5495894.62080299</v>
       </c>
       <c r="D44" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" t="s">
+        <v>104</v>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1869</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4018</v>
+      </c>
+      <c r="K44" t="n">
+        <v>213.69006</v>
+      </c>
+      <c r="L44" t="n">
+        <v>86</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4.64836</v>
+      </c>
+      <c r="N44" t="n">
+        <v>4</v>
+      </c>
+      <c r="O44" t="n">
+        <v>51</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
         <v>99</v>
       </c>
-      <c r="E44" t="n">
-        <v>2022</v>
-      </c>
-      <c r="F44" t="s">
-        <v>82</v>
-      </c>
-      <c r="G44" t="s">
-        <v>100</v>
-      </c>
-      <c r="H44" t="n">
-        <v>77</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K44" t="n">
-        <v>4083</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M44" t="n">
-        <v>60</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1</v>
-      </c>
-      <c r="P44" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>8</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
+      <c r="S44" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B45" t="n">
-        <v>432092.759698996</v>
+        <v>450928.35873031</v>
       </c>
       <c r="C45" t="n">
-        <v>5482467.78226914</v>
+        <v>5479173.00758553</v>
       </c>
       <c r="D45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" t="n">
-        <v>2023</v>
+        <v>105</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G45" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H45" t="n">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>7</v>
+        <v>2891</v>
       </c>
       <c r="J45" t="n">
-        <v>1233</v>
+        <v>5087</v>
       </c>
       <c r="K45" t="n">
-        <v>3779</v>
+        <v>167.82854</v>
       </c>
       <c r="L45" t="n">
-        <v>108.43495</v>
+        <v>155</v>
       </c>
       <c r="M45" t="n">
-        <v>239</v>
+        <v>29.01454</v>
       </c>
       <c r="N45" t="n">
-        <v>22.96382</v>
+        <v>4</v>
       </c>
       <c r="O45" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="P45" t="n">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R45" t="n">
-        <v>4</v>
+        <v>77</v>
+      </c>
+      <c r="S45" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B46" t="n">
-        <v>436696.166802497</v>
+        <v>452376.37354973</v>
       </c>
       <c r="C46" t="n">
-        <v>5505446.12171172</v>
+        <v>5479424.91510932</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" t="n">
-        <v>2022</v>
+        <v>107</v>
+      </c>
+      <c r="E46" t="s">
+        <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G46" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H46" t="n">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3445</v>
       </c>
       <c r="J46" t="n">
-        <v>3831</v>
+        <v>3283</v>
       </c>
       <c r="K46" t="n">
-        <v>3671</v>
+        <v>315</v>
       </c>
       <c r="L46" t="n">
-        <v>244.98311</v>
+        <v>174</v>
       </c>
       <c r="M46" t="n">
-        <v>206</v>
+        <v>16.8451</v>
       </c>
       <c r="N46" t="n">
-        <v>13.0795</v>
+        <v>4</v>
       </c>
       <c r="O46" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="P46" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>107.61799</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B47" t="n">
-        <v>436266.717924265</v>
+        <v>433972.39759573</v>
       </c>
       <c r="C47" t="n">
-        <v>5500136.95260869</v>
+        <v>5498654.73224482</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" t="n">
-        <v>2022</v>
+        <v>36</v>
+      </c>
+      <c r="E47" t="s">
+        <v>20</v>
       </c>
       <c r="F47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H47" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>3984</v>
       </c>
       <c r="J47" t="n">
-        <v>3770</v>
+        <v>3827</v>
       </c>
       <c r="K47" t="n">
-        <v>4066</v>
+        <v>315</v>
       </c>
       <c r="L47" t="n">
-        <v>243.43495</v>
+        <v>103</v>
       </c>
       <c r="M47" t="n">
-        <v>163</v>
+        <v>0.99332</v>
       </c>
       <c r="N47" t="n">
-        <v>7.0125</v>
+        <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="P47" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="Q47" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R47" t="n">
+        <v>71</v>
+      </c>
+      <c r="S47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B48" t="n">
-        <v>436498.601717776</v>
+        <v>441502.019374694</v>
       </c>
       <c r="C48" t="n">
-        <v>5500149.02273166</v>
+        <v>5484819.60393541</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" t="n">
-        <v>2022</v>
+        <v>110</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
       </c>
       <c r="F48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G48" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H48" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1298</v>
       </c>
       <c r="J48" t="n">
-        <v>4028</v>
+        <v>4280</v>
       </c>
       <c r="K48" t="n">
-        <v>4274</v>
+        <v>172.34935</v>
       </c>
       <c r="L48" t="n">
-        <v>23.19859</v>
+        <v>57</v>
       </c>
       <c r="M48" t="n">
-        <v>171</v>
+        <v>36.94329</v>
       </c>
       <c r="N48" t="n">
-        <v>4.5327</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="P48" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="Q48" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R48" t="n">
+        <v>96</v>
+      </c>
+      <c r="S48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B49" t="n">
-        <v>435992.346395396</v>
+        <v>433339.252670643</v>
       </c>
       <c r="C49" t="n">
-        <v>5514184.62623399</v>
+        <v>5496745.18838476</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
-      </c>
-      <c r="E49" t="n">
-        <v>2023</v>
+        <v>112</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
       </c>
       <c r="F49" t="s">
+        <v>85</v>
+      </c>
+      <c r="G49" t="s">
+        <v>113</v>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4076</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4089</v>
+      </c>
+      <c r="K49" t="n">
+        <v>244.98311</v>
+      </c>
+      <c r="L49" t="n">
+        <v>106</v>
+      </c>
+      <c r="M49" t="n">
+        <v>13.06099</v>
+      </c>
+      <c r="N49" t="n">
+        <v>4</v>
+      </c>
+      <c r="O49" t="n">
+        <v>41</v>
+      </c>
+      <c r="P49" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
         <v>82</v>
       </c>
-      <c r="G49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H49"/>
-      <c r="I49" t="n">
-        <v>7</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1392</v>
-      </c>
-      <c r="K49" t="n">
-        <v>3653</v>
-      </c>
-      <c r="L49" t="n">
-        <v>288.43494</v>
-      </c>
-      <c r="M49" t="n">
-        <v>21</v>
-      </c>
-      <c r="N49" t="n">
-        <v>2.56584</v>
-      </c>
-      <c r="O49" t="n">
-        <v>4</v>
-      </c>
-      <c r="P49" t="n">
-        <v>53</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>1</v>
-      </c>
-      <c r="R49" t="n">
-        <v>4</v>
+      <c r="S49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B50" t="n">
-        <v>434447.912745962</v>
+        <v>436266.717924265</v>
       </c>
       <c r="C50" t="n">
-        <v>5496789.34971667</v>
+        <v>5500136.95260869</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
-      </c>
-      <c r="E50" t="n">
-        <v>2022</v>
+        <v>114</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
       </c>
       <c r="F50" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G50" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H50" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>3770</v>
       </c>
       <c r="J50" t="n">
-        <v>3711</v>
+        <v>4066</v>
       </c>
       <c r="K50" t="n">
-        <v>4336</v>
+        <v>243.43495</v>
       </c>
       <c r="L50" t="n">
-        <v>75.06858</v>
+        <v>163</v>
       </c>
       <c r="M50" t="n">
-        <v>106</v>
+        <v>7.0125</v>
       </c>
       <c r="N50" t="n">
-        <v>25.37465</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="P50" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="Q50" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R50" t="n">
+        <v>78</v>
+      </c>
+      <c r="S50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B51" t="n">
-        <v>450928.35873031</v>
+        <v>445927.850832599</v>
       </c>
       <c r="C51" t="n">
-        <v>5479173.00758553</v>
+        <v>5533722.22630949</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
-      </c>
-      <c r="E51" t="n">
-        <v>2023</v>
+        <v>116</v>
+      </c>
+      <c r="E51" t="s">
+        <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G51" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H51" t="n">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="I51" t="n">
-        <v>4</v>
+        <v>1805</v>
       </c>
       <c r="J51" t="n">
-        <v>2891</v>
+        <v>3845</v>
       </c>
       <c r="K51" t="n">
-        <v>5087</v>
+        <v>201.80141</v>
       </c>
       <c r="L51" t="n">
-        <v>167.82854</v>
+        <v>6</v>
       </c>
       <c r="M51" t="n">
-        <v>155</v>
+        <v>12.71596</v>
       </c>
       <c r="N51" t="n">
-        <v>29.01454</v>
+        <v>5</v>
       </c>
       <c r="O51" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="P51" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="Q51" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R51" t="n">
-        <v>11</v>
+        <v>105</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -3731,1556 +3903,1644 @@
         <v>5497932.93359169</v>
       </c>
       <c r="D52" t="s">
-        <v>114</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2022</v>
+        <v>118</v>
+      </c>
+      <c r="E52" t="s">
+        <v>28</v>
       </c>
       <c r="F52" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G52" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H52" t="n">
+        <v>3</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2566</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3811</v>
+      </c>
+      <c r="K52" t="n">
+        <v>288.43494</v>
+      </c>
+      <c r="L52" t="n">
+        <v>80</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2.55846</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" t="n">
+        <v>51</v>
+      </c>
+      <c r="P52" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
         <v>81</v>
       </c>
-      <c r="I52" t="n">
-        <v>3</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2566</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3811</v>
-      </c>
-      <c r="L52" t="n">
-        <v>288.43494</v>
-      </c>
-      <c r="M52" t="n">
-        <v>80</v>
-      </c>
-      <c r="N52" t="n">
-        <v>2.55846</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1</v>
-      </c>
-      <c r="P52" t="n">
-        <v>51</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>6</v>
-      </c>
-      <c r="R52" t="n">
+      <c r="S52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B53" t="n">
-        <v>437379.603674986</v>
+        <v>439942.9228935</v>
       </c>
       <c r="C53" t="n">
-        <v>5490438.50937028</v>
+        <v>5490067.83246974</v>
       </c>
       <c r="D53" t="s">
-        <v>116</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2022</v>
+        <v>120</v>
+      </c>
+      <c r="E53" t="s">
+        <v>28</v>
       </c>
       <c r="F53" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H53" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="I53" t="n">
-        <v>8</v>
+        <v>2787</v>
       </c>
       <c r="J53" t="n">
-        <v>2051</v>
+        <v>3977</v>
       </c>
       <c r="K53" t="n">
-        <v>3634</v>
+        <v>230.71059</v>
       </c>
       <c r="L53" t="n">
-        <v>249.77515</v>
+        <v>23</v>
       </c>
       <c r="M53" t="n">
-        <v>81</v>
+        <v>20.73335</v>
       </c>
       <c r="N53" t="n">
-        <v>16.26212</v>
+        <v>5</v>
       </c>
       <c r="O53" t="n">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="P53" t="n">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R53" t="n">
+        <v>104</v>
+      </c>
+      <c r="S53" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B54" t="n">
-        <v>443562.841537412</v>
+        <v>424040.286099485</v>
       </c>
       <c r="C54" t="n">
-        <v>5514252.69700199</v>
+        <v>5484245.27998424</v>
       </c>
       <c r="D54" t="s">
-        <v>57</v>
-      </c>
-      <c r="E54" t="n">
-        <v>2023</v>
+        <v>122</v>
+      </c>
+      <c r="E54" t="s">
+        <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G54" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H54" t="n">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="I54" t="n">
-        <v>7</v>
+        <v>3253</v>
       </c>
       <c r="J54" t="n">
-        <v>2624</v>
+        <v>4166</v>
       </c>
       <c r="K54" t="n">
-        <v>2331</v>
+        <v>247.83365</v>
       </c>
       <c r="L54" t="n">
-        <v>302.27563</v>
+        <v>150</v>
       </c>
       <c r="M54" t="n">
-        <v>242</v>
+        <v>23.22338</v>
       </c>
       <c r="N54" t="n">
-        <v>34.31638</v>
+        <v>4</v>
       </c>
       <c r="O54" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="P54" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R54" t="n">
-        <v>4</v>
+        <v>94</v>
+      </c>
+      <c r="S54" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B55" t="n">
-        <v>449772.683405559</v>
+        <v>453479.725760332</v>
       </c>
       <c r="C55" t="n">
-        <v>5478583.0713739</v>
+        <v>5532676.61445048</v>
       </c>
       <c r="D55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E55" t="n">
-        <v>2022</v>
+        <v>40</v>
+      </c>
+      <c r="E55" t="s">
+        <v>20</v>
       </c>
       <c r="F55" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G55" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H55" t="n">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>7</v>
+        <v>1472</v>
       </c>
       <c r="J55" t="n">
-        <v>891</v>
+        <v>3324</v>
       </c>
       <c r="K55" t="n">
-        <v>3872</v>
+        <v>135</v>
       </c>
       <c r="L55" t="n">
-        <v>201.80141</v>
+        <v>71</v>
       </c>
       <c r="M55" t="n">
-        <v>76</v>
+        <v>0.9978</v>
       </c>
       <c r="N55" t="n">
-        <v>6.34008</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="P55" t="n">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="Q55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R55" t="n">
-        <v>4</v>
+        <v>86</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B56" t="n">
-        <v>444533.158980568</v>
+        <v>435337.429979102</v>
       </c>
       <c r="C56" t="n">
-        <v>5513941.12672084</v>
+        <v>5493711.74717095</v>
       </c>
       <c r="D56" t="s">
-        <v>43</v>
-      </c>
-      <c r="E56" t="n">
-        <v>2023</v>
+        <v>125</v>
+      </c>
+      <c r="E56" t="s">
+        <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G56" t="s">
-        <v>121</v>
-      </c>
-      <c r="H56"/>
+        <v>126</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
       <c r="I56" t="n">
+        <v>2568</v>
+      </c>
+      <c r="J56" t="n">
+        <v>4535</v>
+      </c>
+      <c r="K56" t="n">
+        <v>255.96376</v>
+      </c>
+      <c r="L56" t="n">
+        <v>110</v>
+      </c>
+      <c r="M56" t="n">
+        <v>27.00381</v>
+      </c>
+      <c r="N56" t="n">
+        <v>4</v>
+      </c>
+      <c r="O56" t="n">
+        <v>45</v>
+      </c>
+      <c r="P56" t="n">
         <v>8</v>
       </c>
-      <c r="J56" t="n">
-        <v>2498</v>
-      </c>
-      <c r="K56" t="n">
-        <v>2192</v>
-      </c>
-      <c r="L56" t="n">
-        <v>344.74487</v>
-      </c>
-      <c r="M56" t="n">
-        <v>375</v>
-      </c>
-      <c r="N56" t="n">
-        <v>12.89495</v>
-      </c>
-      <c r="O56" t="n">
-        <v>6</v>
-      </c>
-      <c r="P56" t="n">
-        <v>54</v>
-      </c>
       <c r="Q56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R56" t="n">
+        <v>83</v>
+      </c>
+      <c r="S56" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B57" t="n">
-        <v>454953.493596268</v>
+        <v>436023.270855938</v>
       </c>
       <c r="C57" t="n">
-        <v>5474507.53140743</v>
+        <v>5499287.92713512</v>
       </c>
       <c r="D57" t="s">
-        <v>122</v>
-      </c>
-      <c r="E57" t="n">
-        <v>2022</v>
+        <v>127</v>
+      </c>
+      <c r="E57" t="s">
+        <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G57" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H57" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>11</v>
+        <v>4568</v>
       </c>
       <c r="J57" t="n">
-        <v>1757</v>
+        <v>3648</v>
       </c>
       <c r="K57" t="n">
-        <v>2919</v>
+        <v>225</v>
       </c>
       <c r="L57" t="n">
-        <v>284.74356</v>
+        <v>161</v>
       </c>
       <c r="M57" t="n">
-        <v>186</v>
+        <v>0.99338</v>
       </c>
       <c r="N57" t="n">
-        <v>16.00147</v>
+        <v>1</v>
       </c>
       <c r="O57" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="P57" t="n">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="Q57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R57" t="n">
-        <v>4</v>
+        <v>83</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B58" t="n">
-        <v>447554.750798451</v>
+        <v>443483.445094147</v>
       </c>
       <c r="C58" t="n">
-        <v>5474862.69787843</v>
+        <v>5483779.7209153</v>
       </c>
       <c r="D58" t="s">
-        <v>124</v>
-      </c>
-      <c r="E58" t="n">
-        <v>2023</v>
+        <v>129</v>
+      </c>
+      <c r="E58" t="s">
+        <v>28</v>
       </c>
       <c r="F58" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G58" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H58" t="n">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="I58" t="n">
-        <v>8</v>
+        <v>3249</v>
       </c>
       <c r="J58" t="n">
-        <v>2529</v>
+        <v>3266</v>
       </c>
       <c r="K58" t="n">
-        <v>4056</v>
+        <v>212.00539</v>
       </c>
       <c r="L58" t="n">
-        <v>188.74615</v>
+        <v>87</v>
       </c>
       <c r="M58" t="n">
-        <v>41</v>
+        <v>11.99036</v>
       </c>
       <c r="N58" t="n">
-        <v>14.4262</v>
+        <v>1</v>
       </c>
       <c r="O58" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="P58" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="Q58" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R58" t="n">
-        <v>4</v>
+        <v>81</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B59" t="n">
-        <v>436907.175404973</v>
+        <v>453514.635834035</v>
       </c>
       <c r="C59" t="n">
-        <v>5505267.58801453</v>
+        <v>5477358.67683474</v>
       </c>
       <c r="D59" t="s">
-        <v>126</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2022</v>
+        <v>131</v>
+      </c>
+      <c r="E59" t="s">
+        <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G59" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H59" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>11</v>
+        <v>5703</v>
       </c>
       <c r="J59" t="n">
-        <v>2082</v>
+        <v>3699</v>
       </c>
       <c r="K59" t="n">
-        <v>3314</v>
+        <v>106.26021</v>
       </c>
       <c r="L59" t="n">
-        <v>251.56505</v>
+        <v>444</v>
       </c>
       <c r="M59" t="n">
-        <v>215</v>
+        <v>40.57493</v>
       </c>
       <c r="N59" t="n">
-        <v>2.56184</v>
+        <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="P59" t="n">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R59" t="n">
-        <v>4</v>
+        <v>81</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B60" t="n">
-        <v>439431.868844095</v>
+        <v>444533.158980568</v>
       </c>
       <c r="C60" t="n">
-        <v>5515187.13937898</v>
+        <v>5513941.12672084</v>
       </c>
       <c r="D60" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60" t="n">
-        <v>2023</v>
+        <v>46</v>
+      </c>
+      <c r="E60" t="s">
+        <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G60" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H60" t="n">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
+        <v>2498</v>
       </c>
       <c r="J60" t="n">
-        <v>2569</v>
+        <v>2192</v>
       </c>
       <c r="K60" t="n">
-        <v>3006</v>
+        <v>344.74487</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="M60" t="n">
-        <v>30</v>
+        <v>12.89495</v>
       </c>
       <c r="N60" t="n">
-        <v>2.15983</v>
+        <v>6</v>
       </c>
       <c r="O60" t="n">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R60" t="n">
-        <v>11</v>
+        <v>100.85822</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B61" t="n">
-        <v>450046.842685033</v>
+        <v>449772.683405559</v>
       </c>
       <c r="C61" t="n">
-        <v>5520040.05785196</v>
+        <v>5478583.0713739</v>
       </c>
       <c r="D61" t="s">
-        <v>129</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2022</v>
+        <v>134</v>
+      </c>
+      <c r="E61" t="s">
+        <v>28</v>
       </c>
       <c r="F61" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H61" t="n">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="I61" t="n">
-        <v>7</v>
+        <v>891</v>
       </c>
       <c r="J61" t="n">
-        <v>573</v>
+        <v>3872</v>
       </c>
       <c r="K61" t="n">
-        <v>3142</v>
+        <v>201.80141</v>
       </c>
       <c r="L61" t="n">
-        <v>208.61046</v>
+        <v>76</v>
       </c>
       <c r="M61" t="n">
-        <v>22</v>
+        <v>6.34008</v>
       </c>
       <c r="N61" t="n">
-        <v>15.55681</v>
+        <v>4</v>
       </c>
       <c r="O61" t="n">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="P61" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R61" t="n">
+        <v>54</v>
+      </c>
+      <c r="S61" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B62" t="n">
-        <v>439942.9228935</v>
+        <v>441239.992272933</v>
       </c>
       <c r="C62" t="n">
-        <v>5490067.83246974</v>
+        <v>5490541.15062221</v>
       </c>
       <c r="D62" t="s">
-        <v>131</v>
-      </c>
-      <c r="E62" t="n">
-        <v>2022</v>
+        <v>50</v>
+      </c>
+      <c r="E62" t="s">
+        <v>20</v>
       </c>
       <c r="F62" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G62" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H62" t="n">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="I62" t="n">
-        <v>11</v>
+        <v>4084</v>
       </c>
       <c r="J62" t="n">
-        <v>2787</v>
+        <v>2797</v>
       </c>
       <c r="K62" t="n">
-        <v>3977</v>
+        <v>317.33731</v>
       </c>
       <c r="L62" t="n">
-        <v>230.71059</v>
+        <v>219</v>
       </c>
       <c r="M62" t="n">
-        <v>23</v>
+        <v>47.84767</v>
       </c>
       <c r="N62" t="n">
-        <v>20.73335</v>
+        <v>1</v>
       </c>
       <c r="O62" t="n">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="P62" t="n">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="Q62" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R62" t="n">
-        <v>4</v>
+        <v>111</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
+        <v>33</v>
+      </c>
+      <c r="B63" t="n">
+        <v>440741.325298214</v>
+      </c>
+      <c r="C63" t="n">
+        <v>5511530.28088815</v>
+      </c>
+      <c r="D63" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" t="s">
         <v>20</v>
       </c>
-      <c r="B63" t="n">
-        <v>445927.850832599</v>
-      </c>
-      <c r="C63" t="n">
-        <v>5533722.22630949</v>
-      </c>
-      <c r="D63" t="s">
-        <v>133</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2023</v>
-      </c>
       <c r="F63" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G63" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H63" t="n">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I63" t="n">
-        <v>7</v>
+        <v>2925</v>
       </c>
       <c r="J63" t="n">
-        <v>1805</v>
+        <v>639</v>
       </c>
       <c r="K63" t="n">
-        <v>3845</v>
+        <v>334.33481</v>
       </c>
       <c r="L63" t="n">
-        <v>201.80141</v>
+        <v>44</v>
       </c>
       <c r="M63" t="n">
-        <v>6</v>
+        <v>51.81471</v>
       </c>
       <c r="N63" t="n">
-        <v>12.71596</v>
+        <v>5</v>
       </c>
       <c r="O63" t="n">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="P63" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="Q63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R63" t="n">
-        <v>4</v>
+        <v>84</v>
+      </c>
+      <c r="S63" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B64" t="n">
-        <v>445862.556378718</v>
+        <v>434132.244768079</v>
       </c>
       <c r="C64" t="n">
-        <v>5475105.13518301</v>
+        <v>5509276.30099546</v>
       </c>
       <c r="D64" t="s">
-        <v>29</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2023</v>
+        <v>139</v>
+      </c>
+      <c r="E64" t="s">
+        <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G64" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H64" t="n">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="I64" t="n">
-        <v>4</v>
+        <v>1767</v>
       </c>
       <c r="J64" t="n">
-        <v>3688</v>
+        <v>3638</v>
       </c>
       <c r="K64" t="n">
-        <v>3832</v>
+        <v>0.1</v>
       </c>
       <c r="L64" t="n">
-        <v>53.1301</v>
+        <v>16</v>
       </c>
       <c r="M64" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>7.38947</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="P64" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="Q64" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R64" t="n">
+        <v>109</v>
+      </c>
+      <c r="S64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B65" t="n">
-        <v>445336.90926794</v>
+        <v>435093.937060863</v>
       </c>
       <c r="C65" t="n">
-        <v>5526541.64768717</v>
+        <v>5512114.90030169</v>
       </c>
       <c r="D65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" t="s">
+        <v>85</v>
+      </c>
+      <c r="G65" t="s">
+        <v>141</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3709</v>
+      </c>
+      <c r="J65" t="n">
+        <v>4133</v>
+      </c>
+      <c r="K65" t="n">
+        <v>296.56506</v>
+      </c>
+      <c r="L65" t="n">
+        <v>43</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3.5135</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" t="n">
+        <v>19</v>
+      </c>
+      <c r="P65" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
         <v>71</v>
       </c>
-      <c r="E65" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F65" t="s">
-        <v>82</v>
-      </c>
-      <c r="G65" t="s">
-        <v>136</v>
-      </c>
-      <c r="H65" t="n">
-        <v>99</v>
-      </c>
-      <c r="I65" t="n">
+      <c r="S65" t="n">
         <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2516</v>
-      </c>
-      <c r="K65" t="n">
-        <v>4248</v>
-      </c>
-      <c r="L65" t="n">
-        <v>225</v>
-      </c>
-      <c r="M65" t="n">
-        <v>34</v>
-      </c>
-      <c r="N65" t="n">
-        <v>1.99398</v>
-      </c>
-      <c r="O65" t="n">
-        <v>4</v>
-      </c>
-      <c r="P65" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>6</v>
-      </c>
-      <c r="R65" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B66" t="n">
-        <v>453514.635834035</v>
+        <v>439431.868844095</v>
       </c>
       <c r="C66" t="n">
-        <v>5477358.67683474</v>
+        <v>5515187.13937898</v>
       </c>
       <c r="D66" t="s">
-        <v>137</v>
-      </c>
-      <c r="E66" t="n">
-        <v>2023</v>
+        <v>58</v>
+      </c>
+      <c r="E66" t="s">
+        <v>20</v>
       </c>
       <c r="F66" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G66" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H66" t="n">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="I66" t="n">
+        <v>2569</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3006</v>
+      </c>
+      <c r="K66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>5703</v>
-      </c>
-      <c r="K66" t="n">
-        <v>3699</v>
-      </c>
       <c r="L66" t="n">
-        <v>106.26021</v>
+        <v>30</v>
       </c>
       <c r="M66" t="n">
-        <v>444</v>
+        <v>2.15983</v>
       </c>
       <c r="N66" t="n">
-        <v>40.57493</v>
+        <v>4</v>
       </c>
       <c r="O66" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="P66" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="Q66" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R66" t="n">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="S66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
+        <v>39</v>
+      </c>
+      <c r="B67" t="n">
+        <v>443562.841537412</v>
+      </c>
+      <c r="C67" t="n">
+        <v>5514252.69700199</v>
+      </c>
+      <c r="D67" t="s">
+        <v>60</v>
+      </c>
+      <c r="E67" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" t="s">
+        <v>85</v>
+      </c>
+      <c r="G67" t="s">
+        <v>143</v>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2624</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2331</v>
+      </c>
+      <c r="K67" t="n">
+        <v>302.27563</v>
+      </c>
+      <c r="L67" t="n">
+        <v>242</v>
+      </c>
+      <c r="M67" t="n">
+        <v>34.31638</v>
+      </c>
+      <c r="N67" t="n">
+        <v>5</v>
+      </c>
+      <c r="O67" t="n">
         <v>46</v>
       </c>
-      <c r="B67" t="n">
-        <v>419735.450613769</v>
-      </c>
-      <c r="C67" t="n">
-        <v>5478665.9929216</v>
-      </c>
-      <c r="D67" t="s">
-        <v>67</v>
-      </c>
-      <c r="E67" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F67" t="s">
-        <v>82</v>
-      </c>
-      <c r="G67" t="s">
-        <v>139</v>
-      </c>
-      <c r="H67" t="n">
-        <v>77</v>
-      </c>
-      <c r="I67" t="n">
-        <v>6</v>
-      </c>
-      <c r="J67" t="n">
-        <v>2528</v>
-      </c>
-      <c r="K67" t="n">
-        <v>3497</v>
-      </c>
-      <c r="L67" t="n">
-        <v>210.96376</v>
-      </c>
-      <c r="M67" t="n">
-        <v>63</v>
-      </c>
-      <c r="N67" t="n">
-        <v>3.67404</v>
-      </c>
-      <c r="O67" t="n">
-        <v>4</v>
-      </c>
       <c r="P67" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="Q67" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R67" t="n">
+        <v>85</v>
+      </c>
+      <c r="S67" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B68" t="n">
-        <v>441239.992272933</v>
+        <v>436907.175404973</v>
       </c>
       <c r="C68" t="n">
-        <v>5490541.15062221</v>
+        <v>5505267.58801453</v>
       </c>
       <c r="D68" t="s">
-        <v>47</v>
-      </c>
-      <c r="E68" t="n">
-        <v>2023</v>
+        <v>144</v>
+      </c>
+      <c r="E68" t="s">
+        <v>28</v>
       </c>
       <c r="F68" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G68" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H68" t="n">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="I68" t="n">
-        <v>7</v>
+        <v>2082</v>
       </c>
       <c r="J68" t="n">
-        <v>4084</v>
+        <v>3314</v>
       </c>
       <c r="K68" t="n">
-        <v>2797</v>
+        <v>251.56505</v>
       </c>
       <c r="L68" t="n">
-        <v>317.33731</v>
+        <v>215</v>
       </c>
       <c r="M68" t="n">
-        <v>219</v>
+        <v>2.56184</v>
       </c>
       <c r="N68" t="n">
-        <v>47.84767</v>
+        <v>5</v>
       </c>
       <c r="O68" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="P68" t="n">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="Q68" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R68" t="n">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B69" t="n">
-        <v>452691.716611527</v>
+        <v>432092.759698996</v>
       </c>
       <c r="C69" t="n">
-        <v>5533268.44575957</v>
+        <v>5482467.78226914</v>
       </c>
       <c r="D69" t="s">
-        <v>63</v>
-      </c>
-      <c r="E69" t="n">
-        <v>2023</v>
+        <v>72</v>
+      </c>
+      <c r="E69" t="s">
+        <v>20</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G69" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H69" t="n">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1233</v>
       </c>
       <c r="J69" t="n">
-        <v>4561</v>
+        <v>3779</v>
       </c>
       <c r="K69" t="n">
-        <v>3845</v>
+        <v>108.43495</v>
       </c>
       <c r="L69" t="n">
-        <v>26.56505</v>
+        <v>239</v>
       </c>
       <c r="M69" t="n">
-        <v>84</v>
+        <v>22.96382</v>
       </c>
       <c r="N69" t="n">
-        <v>2.73524</v>
+        <v>5</v>
       </c>
       <c r="O69" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="P69" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="Q69" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B70" t="n">
-        <v>453479.725760332</v>
+        <v>439530.993165964</v>
       </c>
       <c r="C70" t="n">
-        <v>5532676.61445048</v>
+        <v>5511345.67682915</v>
       </c>
       <c r="D70" t="s">
-        <v>37</v>
-      </c>
-      <c r="E70" t="n">
-        <v>2023</v>
+        <v>147</v>
+      </c>
+      <c r="E70" t="s">
+        <v>20</v>
       </c>
       <c r="F70" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G70" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H70" t="n">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="I70" t="n">
-        <v>4</v>
+        <v>2765</v>
       </c>
       <c r="J70" t="n">
-        <v>1472</v>
+        <v>3465</v>
       </c>
       <c r="K70" t="n">
-        <v>3324</v>
+        <v>32.47119</v>
       </c>
       <c r="L70" t="n">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="M70" t="n">
-        <v>71</v>
+        <v>8.33671</v>
       </c>
       <c r="N70" t="n">
-        <v>0.9978</v>
+        <v>4</v>
       </c>
       <c r="O70" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="P70" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="Q70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R70" t="n">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="S70" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B71" t="n">
-        <v>435093.937060863</v>
+        <v>432355.901554512</v>
       </c>
       <c r="C71" t="n">
-        <v>5512114.90030169</v>
+        <v>5504544.98235227</v>
       </c>
       <c r="D71" t="s">
-        <v>51</v>
-      </c>
-      <c r="E71" t="n">
-        <v>2023</v>
+        <v>149</v>
+      </c>
+      <c r="E71" t="s">
+        <v>28</v>
       </c>
       <c r="F71" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G71" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="H71" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
+        <v>2950</v>
+      </c>
+      <c r="J71" t="n">
+        <v>4083</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L71" t="n">
+        <v>60</v>
+      </c>
+      <c r="M71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>3709</v>
-      </c>
-      <c r="K71" t="n">
-        <v>4133</v>
-      </c>
-      <c r="L71" t="n">
-        <v>296.56506</v>
-      </c>
-      <c r="M71" t="n">
-        <v>43</v>
-      </c>
       <c r="N71" t="n">
-        <v>3.5135</v>
+        <v>1</v>
       </c>
       <c r="O71" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="P71" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="Q71" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R71" t="n">
+        <v>77</v>
+      </c>
+      <c r="S71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B72" t="n">
-        <v>436023.270855938</v>
+        <v>452691.716611527</v>
       </c>
       <c r="C72" t="n">
-        <v>5499287.92713512</v>
+        <v>5533268.44575957</v>
       </c>
       <c r="D72" t="s">
-        <v>144</v>
-      </c>
-      <c r="E72" t="n">
-        <v>2023</v>
+        <v>66</v>
+      </c>
+      <c r="E72" t="s">
+        <v>20</v>
       </c>
       <c r="F72" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G72" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H72" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>4561</v>
       </c>
       <c r="J72" t="n">
-        <v>4568</v>
+        <v>3845</v>
       </c>
       <c r="K72" t="n">
-        <v>3648</v>
+        <v>26.56505</v>
       </c>
       <c r="L72" t="n">
-        <v>225</v>
+        <v>84</v>
       </c>
       <c r="M72" t="n">
-        <v>161</v>
+        <v>2.73524</v>
       </c>
       <c r="N72" t="n">
-        <v>0.99338</v>
+        <v>1</v>
       </c>
       <c r="O72" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="P72" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="Q72" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R72" t="n">
+        <v>79</v>
+      </c>
+      <c r="S72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B73" t="n">
-        <v>452376.37354973</v>
+        <v>436696.166802497</v>
       </c>
       <c r="C73" t="n">
-        <v>5479424.91510932</v>
+        <v>5505446.12171172</v>
       </c>
       <c r="D73" t="s">
-        <v>146</v>
-      </c>
-      <c r="E73" t="n">
-        <v>2023</v>
+        <v>152</v>
+      </c>
+      <c r="E73" t="s">
+        <v>28</v>
       </c>
       <c r="F73" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G73" t="s">
-        <v>147</v>
-      </c>
-      <c r="H73"/>
+        <v>153</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
       <c r="I73" t="n">
+        <v>3831</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3671</v>
+      </c>
+      <c r="K73" t="n">
+        <v>244.98311</v>
+      </c>
+      <c r="L73" t="n">
+        <v>206</v>
+      </c>
+      <c r="M73" t="n">
+        <v>13.0795</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1</v>
+      </c>
+      <c r="O73" t="n">
+        <v>14</v>
+      </c>
+      <c r="P73" t="n">
         <v>8</v>
       </c>
-      <c r="J73" t="n">
-        <v>3445</v>
-      </c>
-      <c r="K73" t="n">
-        <v>3283</v>
-      </c>
-      <c r="L73" t="n">
-        <v>315</v>
-      </c>
-      <c r="M73" t="n">
-        <v>174</v>
-      </c>
-      <c r="N73" t="n">
-        <v>16.8451</v>
-      </c>
-      <c r="O73" t="n">
-        <v>4</v>
-      </c>
-      <c r="P73" t="n">
-        <v>64</v>
-      </c>
       <c r="Q73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R73" t="n">
-        <v>4</v>
+        <v>84</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B74" t="n">
-        <v>436816.131554947</v>
+        <v>419735.450613769</v>
       </c>
       <c r="C74" t="n">
-        <v>5485717.3620107</v>
+        <v>5478665.9929216</v>
       </c>
       <c r="D74" t="s">
-        <v>148</v>
-      </c>
-      <c r="E74" t="n">
-        <v>2023</v>
+        <v>70</v>
+      </c>
+      <c r="E74" t="s">
+        <v>20</v>
       </c>
       <c r="F74" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G74" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H74" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>2528</v>
       </c>
       <c r="J74" t="n">
-        <v>2987</v>
+        <v>3497</v>
       </c>
       <c r="K74" t="n">
-        <v>3327</v>
+        <v>210.96376</v>
       </c>
       <c r="L74" t="n">
-        <v>1.4688</v>
+        <v>63</v>
       </c>
       <c r="M74" t="n">
-        <v>44</v>
+        <v>3.67404</v>
       </c>
       <c r="N74" t="n">
-        <v>21.07474</v>
+        <v>4</v>
       </c>
       <c r="O74" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="P74" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="Q74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R74" t="n">
+        <v>77</v>
+      </c>
+      <c r="S74" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B75" t="n">
-        <v>432960.259713967</v>
+        <v>437379.603674986</v>
       </c>
       <c r="C75" t="n">
-        <v>5495894.62080299</v>
+        <v>5490438.50937028</v>
       </c>
       <c r="D75" t="s">
-        <v>150</v>
-      </c>
-      <c r="E75" t="n">
-        <v>2022</v>
+        <v>155</v>
+      </c>
+      <c r="E75" t="s">
+        <v>28</v>
       </c>
       <c r="F75" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G75" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H75" t="n">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="I75" t="n">
-        <v>10</v>
+        <v>2051</v>
       </c>
       <c r="J75" t="n">
-        <v>1869</v>
+        <v>3634</v>
       </c>
       <c r="K75" t="n">
-        <v>4018</v>
+        <v>249.77515</v>
       </c>
       <c r="L75" t="n">
-        <v>213.69006</v>
+        <v>81</v>
       </c>
       <c r="M75" t="n">
-        <v>86</v>
+        <v>16.26212</v>
       </c>
       <c r="N75" t="n">
-        <v>4.64836</v>
+        <v>4</v>
       </c>
       <c r="O75" t="n">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="P75" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R75" t="n">
+        <v>92</v>
+      </c>
+      <c r="S75" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B76" t="n">
-        <v>440454.961068764</v>
+        <v>435992.346395396</v>
       </c>
       <c r="C76" t="n">
-        <v>5486838.86015583</v>
+        <v>5514184.62623399</v>
       </c>
       <c r="D76" t="s">
-        <v>152</v>
-      </c>
-      <c r="E76" t="n">
-        <v>2023</v>
+        <v>157</v>
+      </c>
+      <c r="E76" t="s">
+        <v>20</v>
       </c>
       <c r="F76" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G76" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H76" t="n">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="I76" t="n">
-        <v>7</v>
+        <v>1392</v>
       </c>
       <c r="J76" t="n">
-        <v>2197</v>
+        <v>3653</v>
       </c>
       <c r="K76" t="n">
-        <v>3832</v>
+        <v>288.43494</v>
       </c>
       <c r="L76" t="n">
-        <v>254.74489</v>
+        <v>21</v>
       </c>
       <c r="M76" t="n">
-        <v>68</v>
+        <v>2.56584</v>
       </c>
       <c r="N76" t="n">
-        <v>37.17364</v>
+        <v>4</v>
       </c>
       <c r="O76" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="P76" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="Q76" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R76" t="n">
-        <v>11</v>
+        <v>101.44521</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B77" t="n">
-        <v>433429.969638688</v>
+        <v>436498.601717776</v>
       </c>
       <c r="C77" t="n">
-        <v>5497876.81398787</v>
+        <v>5500149.02273166</v>
       </c>
       <c r="D77" t="s">
-        <v>154</v>
-      </c>
-      <c r="E77" t="n">
-        <v>2022</v>
+        <v>159</v>
+      </c>
+      <c r="E77" t="s">
+        <v>28</v>
       </c>
       <c r="F77" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H77" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>4028</v>
       </c>
       <c r="J77" t="n">
-        <v>3753</v>
+        <v>4274</v>
       </c>
       <c r="K77" t="n">
-        <v>4051</v>
+        <v>23.19859</v>
       </c>
       <c r="L77" t="n">
-        <v>288.43494</v>
+        <v>171</v>
       </c>
       <c r="M77" t="n">
-        <v>106</v>
+        <v>4.5327</v>
       </c>
       <c r="N77" t="n">
-        <v>2.55846</v>
+        <v>1</v>
       </c>
       <c r="O77" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="P77" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="Q77" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R77" t="n">
+        <v>83</v>
+      </c>
+      <c r="S77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
+        <v>50</v>
+      </c>
+      <c r="B78" t="n">
+        <v>445336.90926794</v>
+      </c>
+      <c r="C78" t="n">
+        <v>5526541.64768717</v>
+      </c>
+      <c r="D78" t="s">
+        <v>74</v>
+      </c>
+      <c r="E78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" t="s">
+        <v>85</v>
+      </c>
+      <c r="G78" t="s">
+        <v>161</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2516</v>
+      </c>
+      <c r="J78" t="n">
+        <v>4248</v>
+      </c>
+      <c r="K78" t="n">
+        <v>225</v>
+      </c>
+      <c r="L78" t="n">
+        <v>34</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1.99398</v>
+      </c>
+      <c r="N78" t="n">
+        <v>4</v>
+      </c>
+      <c r="O78" t="n">
+        <v>44</v>
+      </c>
+      <c r="P78" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q78" t="n">
         <v>2</v>
       </c>
-      <c r="B78" t="n">
-        <v>431121.025760855</v>
-      </c>
-      <c r="C78" t="n">
-        <v>5500784.98332165</v>
-      </c>
-      <c r="D78" t="s">
-        <v>156</v>
-      </c>
-      <c r="E78" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F78" t="s">
-        <v>82</v>
-      </c>
-      <c r="G78" t="s">
-        <v>157</v>
-      </c>
-      <c r="H78" t="n">
-        <v>105</v>
-      </c>
-      <c r="I78" t="n">
-        <v>11</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2684</v>
-      </c>
-      <c r="K78" t="n">
-        <v>2155</v>
-      </c>
-      <c r="L78" t="n">
-        <v>333.43494</v>
-      </c>
-      <c r="M78" t="n">
-        <v>16</v>
-      </c>
-      <c r="N78" t="n">
-        <v>30.01942</v>
-      </c>
-      <c r="O78" t="n">
-        <v>4</v>
-      </c>
-      <c r="P78" t="n">
-        <v>62</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>1</v>
-      </c>
       <c r="R78" t="n">
+        <v>99</v>
+      </c>
+      <c r="S78" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B79" t="n">
-        <v>435337.429979102</v>
+        <v>450046.842685033</v>
       </c>
       <c r="C79" t="n">
-        <v>5493711.74717095</v>
+        <v>5520040.05785196</v>
       </c>
       <c r="D79" t="s">
-        <v>158</v>
-      </c>
-      <c r="E79" t="n">
-        <v>2023</v>
+        <v>162</v>
+      </c>
+      <c r="E79" t="s">
+        <v>28</v>
       </c>
       <c r="F79" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G79" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H79" t="n">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>573</v>
       </c>
       <c r="J79" t="n">
-        <v>2568</v>
+        <v>3142</v>
       </c>
       <c r="K79" t="n">
-        <v>4535</v>
+        <v>208.61046</v>
       </c>
       <c r="L79" t="n">
-        <v>255.96376</v>
+        <v>22</v>
       </c>
       <c r="M79" t="n">
-        <v>110</v>
+        <v>15.55681</v>
       </c>
       <c r="N79" t="n">
-        <v>27.00381</v>
+        <v>4</v>
       </c>
       <c r="O79" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="P79" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="Q79" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R79" t="n">
+        <v>114</v>
+      </c>
+      <c r="S79" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5295,272 +5555,287 @@
         <v>5475767.26194191</v>
       </c>
       <c r="D80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E80" t="n">
-        <v>2023</v>
+        <v>164</v>
+      </c>
+      <c r="E80" t="s">
+        <v>20</v>
       </c>
       <c r="F80" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G80" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H80" t="n">
+        <v>4</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3064</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2792</v>
+      </c>
+      <c r="K80" t="n">
+        <v>355.9144</v>
+      </c>
+      <c r="L80" t="n">
+        <v>219</v>
+      </c>
+      <c r="M80" t="n">
+        <v>15.2097</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" t="n">
+        <v>34</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
         <v>65</v>
       </c>
-      <c r="I80" t="n">
-        <v>4</v>
-      </c>
-      <c r="J80" t="n">
-        <v>3064</v>
-      </c>
-      <c r="K80" t="n">
-        <v>2792</v>
-      </c>
-      <c r="L80" t="n">
-        <v>355.9144</v>
-      </c>
-      <c r="M80" t="n">
-        <v>219</v>
-      </c>
-      <c r="N80" t="n">
-        <v>15.2097</v>
-      </c>
-      <c r="O80" t="n">
-        <v>1</v>
-      </c>
-      <c r="P80" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>1</v>
-      </c>
-      <c r="R80" t="n">
+      <c r="S80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B81" t="n">
-        <v>447002.247748543</v>
+        <v>436816.131554947</v>
       </c>
       <c r="C81" t="n">
-        <v>5481919.86921461</v>
+        <v>5485717.3620107</v>
       </c>
       <c r="D81" t="s">
-        <v>162</v>
-      </c>
-      <c r="E81" t="n">
-        <v>2023</v>
+        <v>166</v>
+      </c>
+      <c r="E81" t="s">
+        <v>20</v>
       </c>
       <c r="F81" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G81" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H81" t="n">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>7</v>
+        <v>2987</v>
       </c>
       <c r="J81" t="n">
-        <v>4795</v>
+        <v>3327</v>
       </c>
       <c r="K81" t="n">
-        <v>6356</v>
+        <v>1.4688</v>
       </c>
       <c r="L81" t="n">
-        <v>171.25385</v>
+        <v>44</v>
       </c>
       <c r="M81" t="n">
-        <v>218</v>
+        <v>21.07474</v>
       </c>
       <c r="N81" t="n">
-        <v>72.13596</v>
+        <v>3</v>
       </c>
       <c r="O81" t="n">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="P81" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="Q81" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R81" t="n">
-        <v>11</v>
+        <v>100</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B82" t="n">
-        <v>439530.993165964</v>
+        <v>433963.255946201</v>
       </c>
       <c r="C82" t="n">
-        <v>5511345.67682915</v>
+        <v>5497043.14889659</v>
       </c>
       <c r="D82" t="s">
-        <v>164</v>
-      </c>
-      <c r="E82" t="n">
-        <v>2023</v>
+        <v>168</v>
+      </c>
+      <c r="E82" t="s">
+        <v>28</v>
       </c>
       <c r="F82" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G82" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H82" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
+        <v>3619</v>
+      </c>
+      <c r="J82" t="n">
+        <v>4536</v>
+      </c>
+      <c r="K82" t="n">
+        <v>198.43495</v>
+      </c>
+      <c r="L82" t="n">
+        <v>113</v>
+      </c>
+      <c r="M82" t="n">
+        <v>7.28688</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+      <c r="O82" t="n">
+        <v>29</v>
+      </c>
+      <c r="P82" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q82" t="n">
         <v>3</v>
       </c>
-      <c r="J82" t="n">
-        <v>2765</v>
-      </c>
-      <c r="K82" t="n">
-        <v>3465</v>
-      </c>
-      <c r="L82" t="n">
-        <v>32.47119</v>
-      </c>
-      <c r="M82" t="n">
-        <v>35</v>
-      </c>
-      <c r="N82" t="n">
-        <v>8.33671</v>
-      </c>
-      <c r="O82" t="n">
-        <v>4</v>
-      </c>
-      <c r="P82" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>6</v>
-      </c>
       <c r="R82" t="n">
-        <v>11</v>
+        <v>88</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B83" t="n">
-        <v>440741.325298214</v>
+        <v>438785.929617102</v>
       </c>
       <c r="C83" t="n">
-        <v>5511530.28088815</v>
+        <v>5491739.12209843</v>
       </c>
       <c r="D83" t="s">
-        <v>166</v>
-      </c>
-      <c r="E83" t="n">
-        <v>2023</v>
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>20</v>
       </c>
       <c r="F83" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G83" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H83" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>12</v>
+        <v>3151</v>
       </c>
       <c r="J83" t="n">
-        <v>2925</v>
+        <v>4888</v>
       </c>
       <c r="K83" t="n">
-        <v>639</v>
+        <v>192.99461</v>
       </c>
       <c r="L83" t="n">
-        <v>334.33481</v>
+        <v>117</v>
       </c>
       <c r="M83" t="n">
-        <v>44</v>
+        <v>14.90134</v>
       </c>
       <c r="N83" t="n">
-        <v>51.81471</v>
+        <v>4</v>
       </c>
       <c r="O83" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="P83" t="n">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="Q83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R83" t="n">
-        <v>11</v>
+        <v>83</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B84" t="n">
-        <v>434132.244768079</v>
+        <v>449165.509628596</v>
       </c>
       <c r="C84" t="n">
-        <v>5509276.30099546</v>
+        <v>5521521.89441345</v>
       </c>
       <c r="D84" t="s">
-        <v>168</v>
-      </c>
-      <c r="E84" t="n">
-        <v>2023</v>
+        <v>171</v>
+      </c>
+      <c r="E84" t="s">
+        <v>28</v>
       </c>
       <c r="F84" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G84" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H84" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>6</v>
+        <v>3190</v>
       </c>
       <c r="J84" t="n">
-        <v>1767</v>
+        <v>4545</v>
       </c>
       <c r="K84" t="n">
-        <v>3638</v>
+        <v>150.64224</v>
       </c>
       <c r="L84" t="n">
-        <v>0.1</v>
+        <v>36</v>
       </c>
       <c r="M84" t="n">
-        <v>16</v>
+        <v>22.92799</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O84" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="P84" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="Q84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R84" t="n">
+        <v>110</v>
+      </c>
+      <c r="S84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5575,48 +5850,51 @@
         <v>5362179.84732718</v>
       </c>
       <c r="D85" t="s">
-        <v>94</v>
-      </c>
-      <c r="E85" t="n">
-        <v>2023</v>
+        <v>122</v>
+      </c>
+      <c r="E85" t="s">
+        <v>20</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G85" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H85" t="n">
+        <v>4</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3283</v>
+      </c>
+      <c r="J85" t="n">
+        <v>5335</v>
+      </c>
+      <c r="K85" t="n">
+        <v>180</v>
+      </c>
+      <c r="L85" t="n">
+        <v>93</v>
+      </c>
+      <c r="M85" t="n">
+        <v>6.47948</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
+      <c r="O85" t="n">
+        <v>30</v>
+      </c>
+      <c r="P85" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
         <v>91</v>
       </c>
-      <c r="I85" t="n">
-        <v>4</v>
-      </c>
-      <c r="J85" t="n">
-        <v>3283</v>
-      </c>
-      <c r="K85" t="n">
-        <v>5335</v>
-      </c>
-      <c r="L85" t="n">
-        <v>180</v>
-      </c>
-      <c r="M85" t="n">
-        <v>93</v>
-      </c>
-      <c r="N85" t="n">
-        <v>6.47948</v>
-      </c>
-      <c r="O85" t="n">
-        <v>1</v>
-      </c>
-      <c r="P85" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>8</v>
-      </c>
-      <c r="R85" t="n">
+      <c r="S85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5631,48 +5909,51 @@
         <v>5379742.58374731</v>
       </c>
       <c r="D86" t="s">
-        <v>171</v>
-      </c>
-      <c r="E86" t="n">
-        <v>2022</v>
+        <v>174</v>
+      </c>
+      <c r="E86" t="s">
+        <v>28</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G86" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>851</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2582</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>123</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+      <c r="O86" t="n">
+        <v>34</v>
+      </c>
+      <c r="P86" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
         <v>177</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>851</v>
-      </c>
-      <c r="K86" t="n">
-        <v>2582</v>
-      </c>
-      <c r="L86" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M86" t="n">
-        <v>123</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="n">
-        <v>1</v>
-      </c>
-      <c r="P86" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>14</v>
-      </c>
-      <c r="R86" t="n">
+      <c r="S86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5687,46 +5968,49 @@
         <v>5376799.27992339</v>
       </c>
       <c r="D87" t="s">
+        <v>176</v>
+      </c>
+      <c r="E87" t="s">
+        <v>28</v>
+      </c>
+      <c r="F87" t="s">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>177</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>997</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3321</v>
+      </c>
+      <c r="K87" t="n">
+        <v>348.69006</v>
+      </c>
+      <c r="L87" t="n">
         <v>173</v>
       </c>
-      <c r="E87" t="n">
-        <v>2022</v>
-      </c>
-      <c r="F87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" t="s">
-        <v>174</v>
-      </c>
-      <c r="H87" t="n">
-        <v>145</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>997</v>
-      </c>
-      <c r="K87" t="n">
-        <v>3321</v>
-      </c>
-      <c r="L87" t="n">
-        <v>348.69006</v>
-      </c>
       <c r="M87" t="n">
-        <v>173</v>
-      </c>
-      <c r="N87" t="n">
         <v>2.82012</v>
       </c>
-      <c r="O87"/>
+      <c r="N87"/>
+      <c r="O87" t="n">
+        <v>14</v>
+      </c>
       <c r="P87" t="n">
         <v>14</v>
       </c>
       <c r="Q87" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="R87" t="n">
+        <v>145</v>
+      </c>
+      <c r="S87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5741,48 +6025,51 @@
         <v>5370831.3265723</v>
       </c>
       <c r="D88" t="s">
-        <v>175</v>
-      </c>
-      <c r="E88" t="n">
-        <v>2022</v>
+        <v>178</v>
+      </c>
+      <c r="E88" t="s">
+        <v>28</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G88" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H88" t="n">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1535</v>
       </c>
       <c r="J88" t="n">
-        <v>1535</v>
+        <v>3845</v>
       </c>
       <c r="K88" t="n">
-        <v>3845</v>
+        <v>315</v>
       </c>
       <c r="L88" t="n">
-        <v>315</v>
+        <v>110</v>
       </c>
       <c r="M88" t="n">
-        <v>110</v>
+        <v>0.97689</v>
       </c>
       <c r="N88" t="n">
-        <v>0.97689</v>
+        <v>1</v>
       </c>
       <c r="O88" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="P88" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
       </c>
       <c r="R88" t="n">
+        <v>123.12057</v>
+      </c>
+      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>

--- a/final carbon data/env_site_final.xlsx
+++ b/final carbon data/env_site_final.xlsx
@@ -1169,7 +1169,7 @@
         <v>8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
         <v>98</v>
@@ -1228,7 +1228,7 @@
         <v>8</v>
       </c>
       <c r="Q6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
         <v>104</v>
@@ -1523,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
         <v>126.29289</v>
@@ -1582,7 +1582,7 @@
         <v>14</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
         <v>179</v>
@@ -1641,7 +1641,7 @@
         <v>8</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
         <v>81</v>
@@ -1877,7 +1877,7 @@
         <v>8</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
         <v>94</v>
@@ -2054,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
         <v>90</v>
@@ -2231,7 +2231,7 @@
         <v>8</v>
       </c>
       <c r="Q23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
         <v>95</v>
@@ -2290,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R24" t="n">
         <v>79</v>
@@ -2467,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
         <v>106</v>
@@ -2644,7 +2644,7 @@
         <v>6</v>
       </c>
       <c r="Q30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R30" t="n">
         <v>152</v>
@@ -5888,9 +5888,7 @@
       <c r="P85" t="n">
         <v>8</v>
       </c>
-      <c r="Q85" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q85"/>
       <c r="R85" t="n">
         <v>91</v>
       </c>
@@ -5948,7 +5946,7 @@
         <v>14</v>
       </c>
       <c r="Q86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R86" t="n">
         <v>177</v>
@@ -6005,7 +6003,7 @@
         <v>14</v>
       </c>
       <c r="Q87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R87" t="n">
         <v>145</v>

--- a/final carbon data/env_site_final.xlsx
+++ b/final carbon data/env_site_final.xlsx
@@ -5888,7 +5888,9 @@
       <c r="P85" t="n">
         <v>8</v>
       </c>
-      <c r="Q85"/>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
       <c r="R85" t="n">
         <v>91</v>
       </c>

--- a/final carbon data/env_site_final.xlsx
+++ b/final carbon data/env_site_final.xlsx
@@ -5889,7 +5889,7 @@
         <v>8</v>
       </c>
       <c r="Q85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R85" t="n">
         <v>91</v>
@@ -5947,9 +5947,7 @@
       <c r="P86" t="n">
         <v>14</v>
       </c>
-      <c r="Q86" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q86"/>
       <c r="R86" t="n">
         <v>177</v>
       </c>

--- a/final carbon data/env_site_final.xlsx
+++ b/final carbon data/env_site_final.xlsx
@@ -3293,7 +3293,7 @@
         <v>6</v>
       </c>
       <c r="Q41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R41" t="n">
         <v>96</v>
@@ -3352,7 +3352,7 @@
         <v>6</v>
       </c>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
         <v>89</v>
@@ -3765,7 +3765,7 @@
         <v>6</v>
       </c>
       <c r="Q49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R49" t="n">
         <v>82</v>
@@ -3824,7 +3824,7 @@
         <v>8</v>
       </c>
       <c r="Q50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R50" t="n">
         <v>78</v>
@@ -4001,7 +4001,7 @@
         <v>6</v>
       </c>
       <c r="Q53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R53" t="n">
         <v>104</v>
@@ -4532,7 +4532,7 @@
         <v>6</v>
       </c>
       <c r="Q62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R62" t="n">
         <v>111</v>
@@ -5299,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="Q75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R75" t="n">
         <v>92</v>
@@ -5417,7 +5417,7 @@
         <v>8</v>
       </c>
       <c r="Q77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R77" t="n">
         <v>83</v>
@@ -5594,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="Q80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R80" t="n">
         <v>65</v>
@@ -5653,7 +5653,7 @@
         <v>1</v>
       </c>
       <c r="Q81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R81" t="n">
         <v>100</v>
@@ -5712,7 +5712,7 @@
         <v>8</v>
       </c>
       <c r="Q82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R82" t="n">
         <v>88</v>

--- a/final carbon data/env_site_final.xlsx
+++ b/final carbon data/env_site_final.xlsx
@@ -974,7 +974,7 @@
         <v>3115</v>
       </c>
       <c r="K2" t="n">
-        <v>281.30994</v>
+        <v>78.69006</v>
       </c>
       <c r="L2" t="n">
         <v>88</v>
@@ -1151,7 +1151,7 @@
         <v>3271</v>
       </c>
       <c r="K5" t="n">
-        <v>337.61987</v>
+        <v>22.38013</v>
       </c>
       <c r="L5" t="n">
         <v>181</v>
@@ -1210,7 +1210,7 @@
         <v>4759</v>
       </c>
       <c r="K6" t="n">
-        <v>236.7683</v>
+        <v>123.2317</v>
       </c>
       <c r="L6" t="n">
         <v>15</v>
@@ -1328,7 +1328,7 @@
         <v>3129</v>
       </c>
       <c r="K8" t="n">
-        <v>208.61046</v>
+        <v>151.38954</v>
       </c>
       <c r="L8" t="n">
         <v>93</v>
@@ -1446,7 +1446,7 @@
         <v>4641</v>
       </c>
       <c r="K10" t="n">
-        <v>237.20047</v>
+        <v>122.79953</v>
       </c>
       <c r="L10" t="n">
         <v>8</v>
@@ -1623,7 +1623,7 @@
         <v>4509</v>
       </c>
       <c r="K13" t="n">
-        <v>198.43495</v>
+        <v>161.56505</v>
       </c>
       <c r="L13" t="n">
         <v>108</v>
@@ -1682,7 +1682,7 @@
         <v>2775</v>
       </c>
       <c r="K14" t="n">
-        <v>322.59464</v>
+        <v>37.40536</v>
       </c>
       <c r="L14" t="n">
         <v>55</v>
@@ -2036,7 +2036,7 @@
         <v>4120</v>
       </c>
       <c r="K20" t="n">
-        <v>206.56505</v>
+        <v>153.43495</v>
       </c>
       <c r="L20" t="n">
         <v>152</v>
@@ -2095,7 +2095,7 @@
         <v>2776</v>
       </c>
       <c r="K21" t="n">
-        <v>344.0546</v>
+        <v>15.9454</v>
       </c>
       <c r="L21" t="n">
         <v>150</v>
@@ -2213,7 +2213,7 @@
         <v>4602</v>
       </c>
       <c r="K23" t="n">
-        <v>220.03026</v>
+        <v>139.96974</v>
       </c>
       <c r="L23" t="n">
         <v>62</v>
@@ -2272,7 +2272,7 @@
         <v>2468</v>
       </c>
       <c r="K24" t="n">
-        <v>324.86581</v>
+        <v>35.13419</v>
       </c>
       <c r="L24" t="n">
         <v>20</v>
@@ -2331,7 +2331,7 @@
         <v>2624</v>
       </c>
       <c r="K25" t="n">
-        <v>203.19859</v>
+        <v>156.80141</v>
       </c>
       <c r="L25" t="n">
         <v>33</v>
@@ -2449,7 +2449,7 @@
         <v>3883</v>
       </c>
       <c r="K27" t="n">
-        <v>296.56506</v>
+        <v>63.43494</v>
       </c>
       <c r="L27" t="n">
         <v>26</v>
@@ -2567,7 +2567,7 @@
         <v>2953</v>
       </c>
       <c r="K29" t="n">
-        <v>213.69006</v>
+        <v>146.30994</v>
       </c>
       <c r="L29" t="n">
         <v>29</v>
@@ -2685,7 +2685,7 @@
         <v>4481</v>
       </c>
       <c r="K31" t="n">
-        <v>356.18591</v>
+        <v>3.81409000000002</v>
       </c>
       <c r="L31" t="n">
         <v>84</v>
@@ -2744,7 +2744,7 @@
         <v>3115</v>
       </c>
       <c r="K32" t="n">
-        <v>281.30994</v>
+        <v>78.69006</v>
       </c>
       <c r="L32" t="n">
         <v>88</v>
@@ -2803,7 +2803,7 @@
         <v>3611</v>
       </c>
       <c r="K33" t="n">
-        <v>300.96375</v>
+        <v>59.03625</v>
       </c>
       <c r="L33" t="n">
         <v>234</v>
@@ -2862,7 +2862,7 @@
         <v>5206</v>
       </c>
       <c r="K34" t="n">
-        <v>240.94539</v>
+        <v>119.05461</v>
       </c>
       <c r="L34" t="n">
         <v>122</v>
@@ -2921,7 +2921,7 @@
         <v>2155</v>
       </c>
       <c r="K35" t="n">
-        <v>333.43494</v>
+        <v>26.56506</v>
       </c>
       <c r="L35" t="n">
         <v>16</v>
@@ -2980,7 +2980,7 @@
         <v>4051</v>
       </c>
       <c r="K36" t="n">
-        <v>288.43494</v>
+        <v>71.56506</v>
       </c>
       <c r="L36" t="n">
         <v>106</v>
@@ -3098,7 +3098,7 @@
         <v>3497</v>
       </c>
       <c r="K38" t="n">
-        <v>337.61987</v>
+        <v>22.38013</v>
       </c>
       <c r="L38" t="n">
         <v>77</v>
@@ -3157,7 +3157,7 @@
         <v>2919</v>
       </c>
       <c r="K39" t="n">
-        <v>284.74356</v>
+        <v>75.25644</v>
       </c>
       <c r="L39" t="n">
         <v>186</v>
@@ -3216,7 +3216,7 @@
         <v>3832</v>
       </c>
       <c r="K40" t="n">
-        <v>254.74489</v>
+        <v>105.25511</v>
       </c>
       <c r="L40" t="n">
         <v>68</v>
@@ -3275,7 +3275,7 @@
         <v>4056</v>
       </c>
       <c r="K41" t="n">
-        <v>188.74615</v>
+        <v>171.25385</v>
       </c>
       <c r="L41" t="n">
         <v>41</v>
@@ -3452,7 +3452,7 @@
         <v>4018</v>
       </c>
       <c r="K44" t="n">
-        <v>213.69006</v>
+        <v>146.30994</v>
       </c>
       <c r="L44" t="n">
         <v>86</v>
@@ -3570,7 +3570,7 @@
         <v>3283</v>
       </c>
       <c r="K46" t="n">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="L46" t="n">
         <v>174</v>
@@ -3629,7 +3629,7 @@
         <v>3827</v>
       </c>
       <c r="K47" t="n">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="L47" t="n">
         <v>103</v>
@@ -3747,7 +3747,7 @@
         <v>4089</v>
       </c>
       <c r="K49" t="n">
-        <v>244.98311</v>
+        <v>115.01689</v>
       </c>
       <c r="L49" t="n">
         <v>106</v>
@@ -3806,7 +3806,7 @@
         <v>4066</v>
       </c>
       <c r="K50" t="n">
-        <v>243.43495</v>
+        <v>116.56505</v>
       </c>
       <c r="L50" t="n">
         <v>163</v>
@@ -3865,7 +3865,7 @@
         <v>3845</v>
       </c>
       <c r="K51" t="n">
-        <v>201.80141</v>
+        <v>158.19859</v>
       </c>
       <c r="L51" t="n">
         <v>6</v>
@@ -3924,7 +3924,7 @@
         <v>3811</v>
       </c>
       <c r="K52" t="n">
-        <v>288.43494</v>
+        <v>71.56506</v>
       </c>
       <c r="L52" t="n">
         <v>80</v>
@@ -3983,7 +3983,7 @@
         <v>3977</v>
       </c>
       <c r="K53" t="n">
-        <v>230.71059</v>
+        <v>129.28941</v>
       </c>
       <c r="L53" t="n">
         <v>23</v>
@@ -4042,7 +4042,7 @@
         <v>4166</v>
       </c>
       <c r="K54" t="n">
-        <v>247.83365</v>
+        <v>112.16635</v>
       </c>
       <c r="L54" t="n">
         <v>150</v>
@@ -4160,7 +4160,7 @@
         <v>4535</v>
       </c>
       <c r="K56" t="n">
-        <v>255.96376</v>
+        <v>104.03624</v>
       </c>
       <c r="L56" t="n">
         <v>110</v>
@@ -4219,7 +4219,7 @@
         <v>3648</v>
       </c>
       <c r="K57" t="n">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="L57" t="n">
         <v>161</v>
@@ -4278,7 +4278,7 @@
         <v>3266</v>
       </c>
       <c r="K58" t="n">
-        <v>212.00539</v>
+        <v>147.99461</v>
       </c>
       <c r="L58" t="n">
         <v>87</v>
@@ -4396,7 +4396,7 @@
         <v>2192</v>
       </c>
       <c r="K60" t="n">
-        <v>344.74487</v>
+        <v>15.25513</v>
       </c>
       <c r="L60" t="n">
         <v>375</v>
@@ -4455,7 +4455,7 @@
         <v>3872</v>
       </c>
       <c r="K61" t="n">
-        <v>201.80141</v>
+        <v>158.19859</v>
       </c>
       <c r="L61" t="n">
         <v>76</v>
@@ -4514,7 +4514,7 @@
         <v>2797</v>
       </c>
       <c r="K62" t="n">
-        <v>317.33731</v>
+        <v>42.66269</v>
       </c>
       <c r="L62" t="n">
         <v>219</v>
@@ -4573,7 +4573,7 @@
         <v>639</v>
       </c>
       <c r="K63" t="n">
-        <v>334.33481</v>
+        <v>25.66519</v>
       </c>
       <c r="L63" t="n">
         <v>44</v>
@@ -4691,7 +4691,7 @@
         <v>4133</v>
       </c>
       <c r="K65" t="n">
-        <v>296.56506</v>
+        <v>63.43494</v>
       </c>
       <c r="L65" t="n">
         <v>43</v>
@@ -4809,7 +4809,7 @@
         <v>2331</v>
       </c>
       <c r="K67" t="n">
-        <v>302.27563</v>
+        <v>57.72437</v>
       </c>
       <c r="L67" t="n">
         <v>242</v>
@@ -4868,7 +4868,7 @@
         <v>3314</v>
       </c>
       <c r="K68" t="n">
-        <v>251.56505</v>
+        <v>108.43495</v>
       </c>
       <c r="L68" t="n">
         <v>215</v>
@@ -5163,7 +5163,7 @@
         <v>3671</v>
       </c>
       <c r="K73" t="n">
-        <v>244.98311</v>
+        <v>115.01689</v>
       </c>
       <c r="L73" t="n">
         <v>206</v>
@@ -5222,7 +5222,7 @@
         <v>3497</v>
       </c>
       <c r="K74" t="n">
-        <v>210.96376</v>
+        <v>149.03624</v>
       </c>
       <c r="L74" t="n">
         <v>63</v>
@@ -5281,7 +5281,7 @@
         <v>3634</v>
       </c>
       <c r="K75" t="n">
-        <v>249.77515</v>
+        <v>110.22485</v>
       </c>
       <c r="L75" t="n">
         <v>81</v>
@@ -5340,7 +5340,7 @@
         <v>3653</v>
       </c>
       <c r="K76" t="n">
-        <v>288.43494</v>
+        <v>71.56506</v>
       </c>
       <c r="L76" t="n">
         <v>21</v>
@@ -5458,7 +5458,7 @@
         <v>4248</v>
       </c>
       <c r="K78" t="n">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="L78" t="n">
         <v>34</v>
@@ -5517,7 +5517,7 @@
         <v>3142</v>
       </c>
       <c r="K79" t="n">
-        <v>208.61046</v>
+        <v>151.38954</v>
       </c>
       <c r="L79" t="n">
         <v>22</v>
@@ -5576,7 +5576,7 @@
         <v>2792</v>
       </c>
       <c r="K80" t="n">
-        <v>355.9144</v>
+        <v>4.0856</v>
       </c>
       <c r="L80" t="n">
         <v>219</v>
@@ -5635,7 +5635,7 @@
         <v>3327</v>
       </c>
       <c r="K81" t="n">
-        <v>1.4688</v>
+        <v>1.46879999999999</v>
       </c>
       <c r="L81" t="n">
         <v>44</v>
@@ -5694,7 +5694,7 @@
         <v>4536</v>
       </c>
       <c r="K82" t="n">
-        <v>198.43495</v>
+        <v>161.56505</v>
       </c>
       <c r="L82" t="n">
         <v>113</v>
@@ -5753,7 +5753,7 @@
         <v>4888</v>
       </c>
       <c r="K83" t="n">
-        <v>192.99461</v>
+        <v>167.00539</v>
       </c>
       <c r="L83" t="n">
         <v>117</v>
@@ -5987,7 +5987,7 @@
         <v>3321</v>
       </c>
       <c r="K87" t="n">
-        <v>348.69006</v>
+        <v>11.30994</v>
       </c>
       <c r="L87" t="n">
         <v>173</v>
@@ -6044,7 +6044,7 @@
         <v>3845</v>
       </c>
       <c r="K88" t="n">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="L88" t="n">
         <v>110</v>

--- a/final carbon data/env_site_final.xlsx
+++ b/final carbon data/env_site_final.xlsx
@@ -974,7 +974,7 @@
         <v>3115</v>
       </c>
       <c r="K2" t="n">
-        <v>78.69006</v>
+        <v>101.30994</v>
       </c>
       <c r="L2" t="n">
         <v>88</v>
@@ -1033,7 +1033,7 @@
         <v>4113</v>
       </c>
       <c r="K3" t="n">
-        <v>87.87891</v>
+        <v>92.12109</v>
       </c>
       <c r="L3" t="n">
         <v>61</v>
@@ -1092,7 +1092,7 @@
         <v>5162</v>
       </c>
       <c r="K4" t="n">
-        <v>170.83765</v>
+        <v>9.16235</v>
       </c>
       <c r="L4" t="n">
         <v>88</v>
@@ -1151,7 +1151,7 @@
         <v>3271</v>
       </c>
       <c r="K5" t="n">
-        <v>22.38013</v>
+        <v>157.61987</v>
       </c>
       <c r="L5" t="n">
         <v>181</v>
@@ -1210,7 +1210,7 @@
         <v>4759</v>
       </c>
       <c r="K6" t="n">
-        <v>123.2317</v>
+        <v>56.7683</v>
       </c>
       <c r="L6" t="n">
         <v>15</v>
@@ -1269,7 +1269,7 @@
         <v>3000</v>
       </c>
       <c r="K7" t="n">
-        <v>165.96376</v>
+        <v>14.03624</v>
       </c>
       <c r="L7" t="n">
         <v>19</v>
@@ -1328,7 +1328,7 @@
         <v>3129</v>
       </c>
       <c r="K8" t="n">
-        <v>151.38954</v>
+        <v>28.61046</v>
       </c>
       <c r="L8" t="n">
         <v>93</v>
@@ -1387,7 +1387,7 @@
         <v>2896</v>
       </c>
       <c r="K9" t="n">
-        <v>96.34019</v>
+        <v>83.65981</v>
       </c>
       <c r="L9" t="n">
         <v>110</v>
@@ -1446,7 +1446,7 @@
         <v>4641</v>
       </c>
       <c r="K10" t="n">
-        <v>122.79953</v>
+        <v>57.20047</v>
       </c>
       <c r="L10" t="n">
         <v>8</v>
@@ -1505,7 +1505,7 @@
         <v>3825</v>
       </c>
       <c r="K11" t="n">
-        <v>119.74488</v>
+        <v>60.25512</v>
       </c>
       <c r="L11" t="n">
         <v>23</v>
@@ -1564,7 +1564,7 @@
         <v>3599</v>
       </c>
       <c r="K12" t="n">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="L12" t="n">
         <v>94</v>
@@ -1623,7 +1623,7 @@
         <v>4509</v>
       </c>
       <c r="K13" t="n">
-        <v>161.56505</v>
+        <v>18.43495</v>
       </c>
       <c r="L13" t="n">
         <v>108</v>
@@ -1682,7 +1682,7 @@
         <v>2775</v>
       </c>
       <c r="K14" t="n">
-        <v>37.40536</v>
+        <v>142.59464</v>
       </c>
       <c r="L14" t="n">
         <v>55</v>
@@ -1741,7 +1741,7 @@
         <v>3397</v>
       </c>
       <c r="K15" t="n">
-        <v>146.30994</v>
+        <v>33.69006</v>
       </c>
       <c r="L15" t="n">
         <v>6</v>
@@ -1800,7 +1800,7 @@
         <v>4525</v>
       </c>
       <c r="K16" t="n">
-        <v>161.56505</v>
+        <v>18.43495</v>
       </c>
       <c r="L16" t="n">
         <v>80</v>
@@ -1859,7 +1859,7 @@
         <v>4577</v>
       </c>
       <c r="K17" t="n">
-        <v>178.36342</v>
+        <v>1.63658000000001</v>
       </c>
       <c r="L17" t="n">
         <v>105</v>
@@ -1918,7 +1918,7 @@
         <v>2465</v>
       </c>
       <c r="K18" t="n">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="L18" t="n">
         <v>101</v>
@@ -1977,7 +1977,7 @@
         <v>4949</v>
       </c>
       <c r="K19" t="n">
-        <v>161.56505</v>
+        <v>18.43495</v>
       </c>
       <c r="L19" t="n">
         <v>121</v>
@@ -2036,7 +2036,7 @@
         <v>4120</v>
       </c>
       <c r="K20" t="n">
-        <v>153.43495</v>
+        <v>26.56505</v>
       </c>
       <c r="L20" t="n">
         <v>152</v>
@@ -2095,7 +2095,7 @@
         <v>2776</v>
       </c>
       <c r="K21" t="n">
-        <v>15.9454</v>
+        <v>164.0546</v>
       </c>
       <c r="L21" t="n">
         <v>150</v>
@@ -2154,7 +2154,7 @@
         <v>3337</v>
       </c>
       <c r="K22" t="n">
-        <v>18.43495</v>
+        <v>161.56505</v>
       </c>
       <c r="L22" t="n">
         <v>6</v>
@@ -2213,7 +2213,7 @@
         <v>4602</v>
       </c>
       <c r="K23" t="n">
-        <v>139.96974</v>
+        <v>40.03026</v>
       </c>
       <c r="L23" t="n">
         <v>62</v>
@@ -2272,7 +2272,7 @@
         <v>2468</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13419</v>
+        <v>144.86581</v>
       </c>
       <c r="L24" t="n">
         <v>20</v>
@@ -2331,7 +2331,7 @@
         <v>2624</v>
       </c>
       <c r="K25" t="n">
-        <v>156.80141</v>
+        <v>23.19859</v>
       </c>
       <c r="L25" t="n">
         <v>33</v>
@@ -2390,7 +2390,7 @@
         <v>4490</v>
       </c>
       <c r="K26" t="n">
-        <v>108.43495</v>
+        <v>71.56505</v>
       </c>
       <c r="L26" t="n">
         <v>126</v>
@@ -2449,7 +2449,7 @@
         <v>3883</v>
       </c>
       <c r="K27" t="n">
-        <v>63.43494</v>
+        <v>116.56506</v>
       </c>
       <c r="L27" t="n">
         <v>26</v>
@@ -2508,7 +2508,7 @@
         <v>3340</v>
       </c>
       <c r="K28" t="n">
-        <v>157.9321</v>
+        <v>22.0679</v>
       </c>
       <c r="L28" t="n">
         <v>103</v>
@@ -2567,7 +2567,7 @@
         <v>2953</v>
       </c>
       <c r="K29" t="n">
-        <v>146.30994</v>
+        <v>33.69006</v>
       </c>
       <c r="L29" t="n">
         <v>29</v>
@@ -2626,7 +2626,7 @@
         <v>4183</v>
       </c>
       <c r="K30" t="n">
-        <v>153.43495</v>
+        <v>26.56505</v>
       </c>
       <c r="L30" t="n">
         <v>16</v>
@@ -2685,7 +2685,7 @@
         <v>4481</v>
       </c>
       <c r="K31" t="n">
-        <v>3.81409000000002</v>
+        <v>176.18591</v>
       </c>
       <c r="L31" t="n">
         <v>84</v>
@@ -2744,7 +2744,7 @@
         <v>3115</v>
       </c>
       <c r="K32" t="n">
-        <v>78.69006</v>
+        <v>101.30994</v>
       </c>
       <c r="L32" t="n">
         <v>88</v>
@@ -2803,7 +2803,7 @@
         <v>3611</v>
       </c>
       <c r="K33" t="n">
-        <v>59.03625</v>
+        <v>120.96375</v>
       </c>
       <c r="L33" t="n">
         <v>234</v>
@@ -2862,7 +2862,7 @@
         <v>5206</v>
       </c>
       <c r="K34" t="n">
-        <v>119.05461</v>
+        <v>60.94539</v>
       </c>
       <c r="L34" t="n">
         <v>122</v>
@@ -2880,7 +2880,7 @@
         <v>8</v>
       </c>
       <c r="Q34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
         <v>86</v>
@@ -2921,7 +2921,7 @@
         <v>2155</v>
       </c>
       <c r="K35" t="n">
-        <v>26.56506</v>
+        <v>153.43494</v>
       </c>
       <c r="L35" t="n">
         <v>16</v>
@@ -2939,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R35" t="n">
         <v>105</v>
@@ -2980,7 +2980,7 @@
         <v>4051</v>
       </c>
       <c r="K36" t="n">
-        <v>71.56506</v>
+        <v>108.43494</v>
       </c>
       <c r="L36" t="n">
         <v>106</v>
@@ -2998,7 +2998,7 @@
         <v>8</v>
       </c>
       <c r="Q36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R36" t="n">
         <v>79</v>
@@ -3039,7 +3039,7 @@
         <v>6356</v>
       </c>
       <c r="K37" t="n">
-        <v>171.25385</v>
+        <v>8.74615</v>
       </c>
       <c r="L37" t="n">
         <v>218</v>
@@ -3057,7 +3057,7 @@
         <v>8</v>
       </c>
       <c r="Q37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R37" t="n">
         <v>110</v>
@@ -3098,7 +3098,7 @@
         <v>3497</v>
       </c>
       <c r="K38" t="n">
-        <v>22.38013</v>
+        <v>157.61987</v>
       </c>
       <c r="L38" t="n">
         <v>77</v>
@@ -3116,7 +3116,7 @@
         <v>6</v>
       </c>
       <c r="Q38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R38" t="n">
         <v>84</v>
@@ -3157,7 +3157,7 @@
         <v>2919</v>
       </c>
       <c r="K39" t="n">
-        <v>75.25644</v>
+        <v>104.74356</v>
       </c>
       <c r="L39" t="n">
         <v>186</v>
@@ -3175,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="Q39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
         <v>75</v>
@@ -3216,7 +3216,7 @@
         <v>3832</v>
       </c>
       <c r="K40" t="n">
-        <v>105.25511</v>
+        <v>74.74489</v>
       </c>
       <c r="L40" t="n">
         <v>68</v>
@@ -3234,7 +3234,7 @@
         <v>6</v>
       </c>
       <c r="Q40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R40" t="n">
         <v>147</v>
@@ -3275,7 +3275,7 @@
         <v>4056</v>
       </c>
       <c r="K41" t="n">
-        <v>171.25385</v>
+        <v>8.74615</v>
       </c>
       <c r="L41" t="n">
         <v>41</v>
@@ -3293,7 +3293,7 @@
         <v>6</v>
       </c>
       <c r="Q41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R41" t="n">
         <v>96</v>
@@ -3334,7 +3334,7 @@
         <v>4336</v>
       </c>
       <c r="K42" t="n">
-        <v>75.06858</v>
+        <v>104.93142</v>
       </c>
       <c r="L42" t="n">
         <v>106</v>
@@ -3352,7 +3352,7 @@
         <v>6</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
         <v>89</v>
@@ -3393,7 +3393,7 @@
         <v>3832</v>
       </c>
       <c r="K43" t="n">
-        <v>53.1301</v>
+        <v>126.8699</v>
       </c>
       <c r="L43" t="n">
         <v>93</v>
@@ -3411,7 +3411,7 @@
         <v>6</v>
       </c>
       <c r="Q43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R43" t="n">
         <v>71</v>
@@ -3452,7 +3452,7 @@
         <v>4018</v>
       </c>
       <c r="K44" t="n">
-        <v>146.30994</v>
+        <v>33.69006</v>
       </c>
       <c r="L44" t="n">
         <v>86</v>
@@ -3470,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R44" t="n">
         <v>99</v>
@@ -3511,7 +3511,7 @@
         <v>5087</v>
       </c>
       <c r="K45" t="n">
-        <v>167.82854</v>
+        <v>12.17146</v>
       </c>
       <c r="L45" t="n">
         <v>155</v>
@@ -3529,7 +3529,7 @@
         <v>6</v>
       </c>
       <c r="Q45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R45" t="n">
         <v>77</v>
@@ -3570,7 +3570,7 @@
         <v>3283</v>
       </c>
       <c r="K46" t="n">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="L46" t="n">
         <v>174</v>
@@ -3588,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R46" t="n">
         <v>107.61799</v>
@@ -3629,7 +3629,7 @@
         <v>3827</v>
       </c>
       <c r="K47" t="n">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="L47" t="n">
         <v>103</v>
@@ -3647,7 +3647,7 @@
         <v>8</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R47" t="n">
         <v>71</v>
@@ -3688,7 +3688,7 @@
         <v>4280</v>
       </c>
       <c r="K48" t="n">
-        <v>172.34935</v>
+        <v>7.65065000000001</v>
       </c>
       <c r="L48" t="n">
         <v>57</v>
@@ -3706,7 +3706,7 @@
         <v>8</v>
       </c>
       <c r="Q48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R48" t="n">
         <v>96</v>
@@ -3747,7 +3747,7 @@
         <v>4089</v>
       </c>
       <c r="K49" t="n">
-        <v>115.01689</v>
+        <v>64.98311</v>
       </c>
       <c r="L49" t="n">
         <v>106</v>
@@ -3765,7 +3765,7 @@
         <v>6</v>
       </c>
       <c r="Q49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R49" t="n">
         <v>82</v>
@@ -3806,7 +3806,7 @@
         <v>4066</v>
       </c>
       <c r="K50" t="n">
-        <v>116.56505</v>
+        <v>63.43495</v>
       </c>
       <c r="L50" t="n">
         <v>163</v>
@@ -3824,7 +3824,7 @@
         <v>8</v>
       </c>
       <c r="Q50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R50" t="n">
         <v>78</v>
@@ -3865,7 +3865,7 @@
         <v>3845</v>
       </c>
       <c r="K51" t="n">
-        <v>158.19859</v>
+        <v>21.80141</v>
       </c>
       <c r="L51" t="n">
         <v>6</v>
@@ -3883,7 +3883,7 @@
         <v>1</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R51" t="n">
         <v>105</v>
@@ -3924,7 +3924,7 @@
         <v>3811</v>
       </c>
       <c r="K52" t="n">
-        <v>71.56506</v>
+        <v>108.43494</v>
       </c>
       <c r="L52" t="n">
         <v>80</v>
@@ -3942,7 +3942,7 @@
         <v>6</v>
       </c>
       <c r="Q52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R52" t="n">
         <v>81</v>
@@ -3983,7 +3983,7 @@
         <v>3977</v>
       </c>
       <c r="K53" t="n">
-        <v>129.28941</v>
+        <v>50.71059</v>
       </c>
       <c r="L53" t="n">
         <v>23</v>
@@ -4001,7 +4001,7 @@
         <v>6</v>
       </c>
       <c r="Q53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R53" t="n">
         <v>104</v>
@@ -4042,7 +4042,7 @@
         <v>4166</v>
       </c>
       <c r="K54" t="n">
-        <v>112.16635</v>
+        <v>67.83365</v>
       </c>
       <c r="L54" t="n">
         <v>150</v>
@@ -4060,7 +4060,7 @@
         <v>6</v>
       </c>
       <c r="Q54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R54" t="n">
         <v>94</v>
@@ -4101,7 +4101,7 @@
         <v>3324</v>
       </c>
       <c r="K55" t="n">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="L55" t="n">
         <v>71</v>
@@ -4119,7 +4119,7 @@
         <v>1</v>
       </c>
       <c r="Q55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
         <v>86</v>
@@ -4160,7 +4160,7 @@
         <v>4535</v>
       </c>
       <c r="K56" t="n">
-        <v>104.03624</v>
+        <v>75.96376</v>
       </c>
       <c r="L56" t="n">
         <v>110</v>
@@ -4178,7 +4178,7 @@
         <v>8</v>
       </c>
       <c r="Q56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R56" t="n">
         <v>83</v>
@@ -4219,7 +4219,7 @@
         <v>3648</v>
       </c>
       <c r="K57" t="n">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="L57" t="n">
         <v>161</v>
@@ -4237,7 +4237,7 @@
         <v>8</v>
       </c>
       <c r="Q57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R57" t="n">
         <v>83</v>
@@ -4278,7 +4278,7 @@
         <v>3266</v>
       </c>
       <c r="K58" t="n">
-        <v>147.99461</v>
+        <v>32.00539</v>
       </c>
       <c r="L58" t="n">
         <v>87</v>
@@ -4296,7 +4296,7 @@
         <v>6</v>
       </c>
       <c r="Q58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R58" t="n">
         <v>81</v>
@@ -4337,7 +4337,7 @@
         <v>3699</v>
       </c>
       <c r="K59" t="n">
-        <v>106.26021</v>
+        <v>73.73979</v>
       </c>
       <c r="L59" t="n">
         <v>444</v>
@@ -4355,7 +4355,7 @@
         <v>8</v>
       </c>
       <c r="Q59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R59" t="n">
         <v>81</v>
@@ -4396,7 +4396,7 @@
         <v>2192</v>
       </c>
       <c r="K60" t="n">
-        <v>15.25513</v>
+        <v>164.74487</v>
       </c>
       <c r="L60" t="n">
         <v>375</v>
@@ -4414,7 +4414,7 @@
         <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R60" t="n">
         <v>100.85822</v>
@@ -4455,7 +4455,7 @@
         <v>3872</v>
       </c>
       <c r="K61" t="n">
-        <v>158.19859</v>
+        <v>21.80141</v>
       </c>
       <c r="L61" t="n">
         <v>76</v>
@@ -4473,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="Q61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R61" t="n">
         <v>54</v>
@@ -4514,7 +4514,7 @@
         <v>2797</v>
       </c>
       <c r="K62" t="n">
-        <v>42.66269</v>
+        <v>137.33731</v>
       </c>
       <c r="L62" t="n">
         <v>219</v>
@@ -4532,7 +4532,7 @@
         <v>6</v>
       </c>
       <c r="Q62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R62" t="n">
         <v>111</v>
@@ -4573,7 +4573,7 @@
         <v>639</v>
       </c>
       <c r="K63" t="n">
-        <v>25.66519</v>
+        <v>154.33481</v>
       </c>
       <c r="L63" t="n">
         <v>44</v>
@@ -4591,7 +4591,7 @@
         <v>1</v>
       </c>
       <c r="Q63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R63" t="n">
         <v>84</v>
@@ -4650,7 +4650,7 @@
         <v>1</v>
       </c>
       <c r="Q64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R64" t="n">
         <v>109</v>
@@ -4691,7 +4691,7 @@
         <v>4133</v>
       </c>
       <c r="K65" t="n">
-        <v>63.43494</v>
+        <v>116.56506</v>
       </c>
       <c r="L65" t="n">
         <v>43</v>
@@ -4709,7 +4709,7 @@
         <v>8</v>
       </c>
       <c r="Q65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R65" t="n">
         <v>71</v>
@@ -4750,7 +4750,7 @@
         <v>3006</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="L66" t="n">
         <v>30</v>
@@ -4768,7 +4768,7 @@
         <v>6</v>
       </c>
       <c r="Q66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R66" t="n">
         <v>113</v>
@@ -4809,7 +4809,7 @@
         <v>2331</v>
       </c>
       <c r="K67" t="n">
-        <v>57.72437</v>
+        <v>122.27563</v>
       </c>
       <c r="L67" t="n">
         <v>242</v>
@@ -4827,7 +4827,7 @@
         <v>1</v>
       </c>
       <c r="Q67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R67" t="n">
         <v>85</v>
@@ -4868,7 +4868,7 @@
         <v>3314</v>
       </c>
       <c r="K68" t="n">
-        <v>108.43495</v>
+        <v>71.56505</v>
       </c>
       <c r="L68" t="n">
         <v>215</v>
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="Q68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R68" t="n">
         <v>112</v>
@@ -4927,7 +4927,7 @@
         <v>3779</v>
       </c>
       <c r="K69" t="n">
-        <v>108.43495</v>
+        <v>71.56505</v>
       </c>
       <c r="L69" t="n">
         <v>239</v>
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="Q69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R69" t="n">
         <v>94</v>
@@ -4986,7 +4986,7 @@
         <v>3465</v>
       </c>
       <c r="K70" t="n">
-        <v>32.47119</v>
+        <v>147.52881</v>
       </c>
       <c r="L70" t="n">
         <v>35</v>
@@ -5004,7 +5004,7 @@
         <v>6</v>
       </c>
       <c r="Q70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R70" t="n">
         <v>83</v>
@@ -5063,7 +5063,7 @@
         <v>8</v>
       </c>
       <c r="Q71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R71" t="n">
         <v>77</v>
@@ -5104,7 +5104,7 @@
         <v>3845</v>
       </c>
       <c r="K72" t="n">
-        <v>26.56505</v>
+        <v>153.43495</v>
       </c>
       <c r="L72" t="n">
         <v>84</v>
@@ -5122,7 +5122,7 @@
         <v>8</v>
       </c>
       <c r="Q72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R72" t="n">
         <v>79</v>
@@ -5163,7 +5163,7 @@
         <v>3671</v>
       </c>
       <c r="K73" t="n">
-        <v>115.01689</v>
+        <v>64.98311</v>
       </c>
       <c r="L73" t="n">
         <v>206</v>
@@ -5181,7 +5181,7 @@
         <v>8</v>
       </c>
       <c r="Q73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R73" t="n">
         <v>84</v>
@@ -5222,7 +5222,7 @@
         <v>3497</v>
       </c>
       <c r="K74" t="n">
-        <v>149.03624</v>
+        <v>30.96376</v>
       </c>
       <c r="L74" t="n">
         <v>63</v>
@@ -5240,7 +5240,7 @@
         <v>6</v>
       </c>
       <c r="Q74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R74" t="n">
         <v>77</v>
@@ -5281,7 +5281,7 @@
         <v>3634</v>
       </c>
       <c r="K75" t="n">
-        <v>110.22485</v>
+        <v>69.77515</v>
       </c>
       <c r="L75" t="n">
         <v>81</v>
@@ -5299,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="Q75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R75" t="n">
         <v>92</v>
@@ -5340,7 +5340,7 @@
         <v>3653</v>
       </c>
       <c r="K76" t="n">
-        <v>71.56506</v>
+        <v>108.43494</v>
       </c>
       <c r="L76" t="n">
         <v>21</v>
@@ -5358,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="Q76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R76" t="n">
         <v>101.44521</v>
@@ -5399,7 +5399,7 @@
         <v>4274</v>
       </c>
       <c r="K77" t="n">
-        <v>23.19859</v>
+        <v>156.80141</v>
       </c>
       <c r="L77" t="n">
         <v>171</v>
@@ -5417,7 +5417,7 @@
         <v>8</v>
       </c>
       <c r="Q77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R77" t="n">
         <v>83</v>
@@ -5458,7 +5458,7 @@
         <v>4248</v>
       </c>
       <c r="K78" t="n">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="L78" t="n">
         <v>34</v>
@@ -5476,7 +5476,7 @@
         <v>6</v>
       </c>
       <c r="Q78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R78" t="n">
         <v>99</v>
@@ -5517,7 +5517,7 @@
         <v>3142</v>
       </c>
       <c r="K79" t="n">
-        <v>151.38954</v>
+        <v>28.61046</v>
       </c>
       <c r="L79" t="n">
         <v>22</v>
@@ -5535,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="Q79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R79" t="n">
         <v>114</v>
@@ -5576,7 +5576,7 @@
         <v>2792</v>
       </c>
       <c r="K80" t="n">
-        <v>4.0856</v>
+        <v>175.9144</v>
       </c>
       <c r="L80" t="n">
         <v>219</v>
@@ -5594,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="Q80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R80" t="n">
         <v>65</v>
@@ -5635,7 +5635,7 @@
         <v>3327</v>
       </c>
       <c r="K81" t="n">
-        <v>1.46879999999999</v>
+        <v>178.5312</v>
       </c>
       <c r="L81" t="n">
         <v>44</v>
@@ -5694,7 +5694,7 @@
         <v>4536</v>
       </c>
       <c r="K82" t="n">
-        <v>161.56505</v>
+        <v>18.43495</v>
       </c>
       <c r="L82" t="n">
         <v>113</v>
@@ -5712,7 +5712,7 @@
         <v>8</v>
       </c>
       <c r="Q82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R82" t="n">
         <v>88</v>
@@ -5753,7 +5753,7 @@
         <v>4888</v>
       </c>
       <c r="K83" t="n">
-        <v>167.00539</v>
+        <v>12.99461</v>
       </c>
       <c r="L83" t="n">
         <v>117</v>
@@ -5771,7 +5771,7 @@
         <v>8</v>
       </c>
       <c r="Q83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R83" t="n">
         <v>83</v>
@@ -5812,7 +5812,7 @@
         <v>4545</v>
       </c>
       <c r="K84" t="n">
-        <v>150.64224</v>
+        <v>29.35776</v>
       </c>
       <c r="L84" t="n">
         <v>36</v>
@@ -5830,7 +5830,7 @@
         <v>8</v>
       </c>
       <c r="Q84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R84" t="n">
         <v>110</v>
@@ -5871,7 +5871,7 @@
         <v>5335</v>
       </c>
       <c r="K85" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>93</v>
@@ -5987,7 +5987,7 @@
         <v>3321</v>
       </c>
       <c r="K87" t="n">
-        <v>11.30994</v>
+        <v>168.69006</v>
       </c>
       <c r="L87" t="n">
         <v>173</v>
@@ -6044,7 +6044,7 @@
         <v>3845</v>
       </c>
       <c r="K88" t="n">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="L88" t="n">
         <v>110</v>
